--- a/docs/IMR-SampleSubmissionSheet_v10(LASTNAME_MMMDD).xlsx
+++ b/docs/IMR-SampleSubmissionSheet_v10(LASTNAME_MMMDD).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4C72F5-956C-49B7-9A2C-78CA05AB8D6D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBCF461-B3EC-4728-B1A2-39764CFC8A82}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="742" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="742" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTIONS (read first)" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="157">
   <si>
     <t xml:space="preserve">Plate 1 </t>
   </si>
@@ -915,9 +915,6 @@
     </r>
   </si>
   <si>
-    <t>Popuar Mixtures:</t>
-  </si>
-  <si>
     <t>Euk+Fungi</t>
   </si>
   <si>
@@ -1143,6 +1140,15 @@
   </si>
   <si>
     <t xml:space="preserve"> NextSeq 4X - ~16 million PE 150+150 bp reads = 4.8 Gb/sample</t>
+  </si>
+  <si>
+    <t>Popuar Combos:</t>
+  </si>
+  <si>
+    <t>and sequencing)</t>
+  </si>
+  <si>
+    <t>(separate PCRs</t>
   </si>
 </sst>
 </file>
@@ -1759,7 +1765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1969,6 +1975,13 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -1977,7 +1990,42 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1987,85 +2035,46 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2543,7 +2552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -2563,11 +2572,11 @@
       <c r="A2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
@@ -2602,32 +2611,32 @@
       <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
     </row>
     <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="80"/>
+      <c r="C9" s="83"/>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="81"/>
+      <c r="C10" s="84"/>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
     </row>
     <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
@@ -2650,25 +2659,25 @@
         <v>75</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
     </row>
     <row r="18" spans="1:3" s="78" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="78" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -2676,7 +2685,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="78" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -2684,18 +2693,18 @@
         <v>75</v>
       </c>
       <c r="C20" s="77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="16"/>
     </row>
     <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
     </row>
     <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
@@ -2718,34 +2727,34 @@
         <v>75</v>
       </c>
       <c r="C25" s="77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
     </row>
     <row r="27" spans="1:3" s="78" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="116" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" s="116"/>
-      <c r="C27" s="116"/>
+      <c r="A27" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
     </row>
     <row r="28" spans="1:3" s="78" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2758,7 +2767,7 @@
   </sheetPr>
   <dimension ref="A1:AF78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M3" sqref="M3:AA14"/>
     </sheetView>
   </sheetViews>
@@ -2768,20 +2777,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="91" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
+      <c r="A1" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S2" s="7"/>
@@ -2804,31 +2813,31 @@
         <v>12</v>
       </c>
       <c r="B3" s="89"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="102"/>
       <c r="J3" s="89" t="s">
         <v>37</v>
       </c>
       <c r="K3" s="89"/>
       <c r="L3" s="89"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="112"/>
+      <c r="S3" s="112"/>
+      <c r="T3" s="112"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="112"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="112"/>
+      <c r="Y3" s="112"/>
+      <c r="Z3" s="112"/>
+      <c r="AA3" s="112"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
@@ -2840,31 +2849,31 @@
         <v>14</v>
       </c>
       <c r="B4" s="89"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102"/>
       <c r="J4" s="89" t="s">
         <v>36</v>
       </c>
       <c r="K4" s="89"/>
       <c r="L4" s="89"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="112"/>
+      <c r="T4" s="112"/>
+      <c r="U4" s="112"/>
+      <c r="V4" s="112"/>
+      <c r="W4" s="112"/>
+      <c r="X4" s="112"/>
+      <c r="Y4" s="112"/>
+      <c r="Z4" s="112"/>
+      <c r="AA4" s="112"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
@@ -2873,26 +2882,26 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I5"/>
-      <c r="J5" s="101" t="s">
+      <c r="J5" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="90"/>
-      <c r="AA5" s="90"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="112"/>
+      <c r="T5" s="112"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="112"/>
+      <c r="W5" s="112"/>
+      <c r="X5" s="112"/>
+      <c r="Y5" s="112"/>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="112"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
@@ -2904,26 +2913,26 @@
         <v>13</v>
       </c>
       <c r="B6" s="89"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="90"/>
-      <c r="AA6" s="90"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="112"/>
+      <c r="R6" s="112"/>
+      <c r="S6" s="112"/>
+      <c r="T6" s="112"/>
+      <c r="U6" s="112"/>
+      <c r="V6" s="112"/>
+      <c r="W6" s="112"/>
+      <c r="X6" s="112"/>
+      <c r="Y6" s="112"/>
+      <c r="Z6" s="112"/>
+      <c r="AA6" s="112"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
@@ -2935,26 +2944,26 @@
         <v>15</v>
       </c>
       <c r="B7" s="89"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="88"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="90"/>
-      <c r="AA7" s="90"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="102"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="112"/>
+      <c r="W7" s="112"/>
+      <c r="X7" s="112"/>
+      <c r="Y7" s="112"/>
+      <c r="Z7" s="112"/>
+      <c r="AA7" s="112"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
@@ -2966,31 +2975,31 @@
       <c r="B8" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="104"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="105"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="90"/>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="90"/>
-      <c r="X8" s="90"/>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="90"/>
-      <c r="AA8" s="90"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="112"/>
+      <c r="R8" s="112"/>
+      <c r="S8" s="112"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="112"/>
+      <c r="W8" s="112"/>
+      <c r="X8" s="112"/>
+      <c r="Y8" s="112"/>
+      <c r="Z8" s="112"/>
+      <c r="AA8" s="112"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
@@ -3000,31 +3009,31 @@
     <row r="9" spans="1:32" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="107"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="108"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="90"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="112"/>
+      <c r="Q9" s="112"/>
+      <c r="R9" s="112"/>
+      <c r="S9" s="112"/>
+      <c r="T9" s="112"/>
+      <c r="U9" s="112"/>
+      <c r="V9" s="112"/>
+      <c r="W9" s="112"/>
+      <c r="X9" s="112"/>
+      <c r="Y9" s="112"/>
+      <c r="Z9" s="112"/>
+      <c r="AA9" s="112"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
@@ -3044,21 +3053,21 @@
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
       <c r="L10" s="35"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="90"/>
-      <c r="Y10" s="90"/>
-      <c r="Z10" s="90"/>
-      <c r="AA10" s="90"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="112"/>
+      <c r="Q10" s="112"/>
+      <c r="R10" s="112"/>
+      <c r="S10" s="112"/>
+      <c r="T10" s="112"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="112"/>
+      <c r="AA10" s="112"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
@@ -3071,7 +3080,7 @@
       <c r="C11" s="63"/>
       <c r="D11" s="63"/>
       <c r="E11" s="75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F11" s="63"/>
       <c r="G11" s="63"/>
@@ -3080,21 +3089,21 @@
       <c r="J11" s="64"/>
       <c r="K11" s="65"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="90"/>
-      <c r="AA11" s="90"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="112"/>
+      <c r="R11" s="112"/>
+      <c r="S11" s="112"/>
+      <c r="T11" s="112"/>
+      <c r="U11" s="112"/>
+      <c r="V11" s="112"/>
+      <c r="W11" s="112"/>
+      <c r="X11" s="112"/>
+      <c r="Y11" s="112"/>
+      <c r="Z11" s="112"/>
+      <c r="AA11" s="112"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
@@ -3111,27 +3120,27 @@
       <c r="F12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="108" t="s">
-        <v>136</v>
-      </c>
-      <c r="J12" s="108"/>
-      <c r="K12" s="109"/>
+      <c r="I12" s="109" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" s="109"/>
+      <c r="K12" s="110"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="90"/>
-      <c r="AA12" s="90"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="112"/>
+      <c r="R12" s="112"/>
+      <c r="S12" s="112"/>
+      <c r="T12" s="112"/>
+      <c r="U12" s="112"/>
+      <c r="V12" s="112"/>
+      <c r="W12" s="112"/>
+      <c r="X12" s="112"/>
+      <c r="Y12" s="112"/>
+      <c r="Z12" s="112"/>
+      <c r="AA12" s="112"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
@@ -3146,25 +3155,25 @@
       <c r="F13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="110"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="90"/>
-      <c r="W13" s="90"/>
-      <c r="X13" s="90"/>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="90"/>
-      <c r="AA13" s="90"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="112"/>
+      <c r="S13" s="112"/>
+      <c r="T13" s="112"/>
+      <c r="U13" s="112"/>
+      <c r="V13" s="112"/>
+      <c r="W13" s="112"/>
+      <c r="X13" s="112"/>
+      <c r="Y13" s="112"/>
+      <c r="Z13" s="112"/>
+      <c r="AA13" s="112"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
@@ -3180,25 +3189,25 @@
         <v>41</v>
       </c>
       <c r="G14" s="12"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="110"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="90"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="90"/>
-      <c r="Z14" s="90"/>
-      <c r="AA14" s="90"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="112"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="112"/>
+      <c r="Q14" s="112"/>
+      <c r="R14" s="112"/>
+      <c r="S14" s="112"/>
+      <c r="T14" s="112"/>
+      <c r="U14" s="112"/>
+      <c r="V14" s="112"/>
+      <c r="W14" s="112"/>
+      <c r="X14" s="112"/>
+      <c r="Y14" s="112"/>
+      <c r="Z14" s="112"/>
+      <c r="AA14" s="112"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
@@ -3214,9 +3223,9 @@
         <v>106</v>
       </c>
       <c r="G15" s="12"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="110"/>
       <c r="L15" s="30"/>
       <c r="M15" s="30"/>
       <c r="N15" s="30"/>
@@ -3246,9 +3255,9 @@
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="12"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="110"/>
       <c r="L16" s="35"/>
       <c r="M16" s="35"/>
       <c r="N16" s="35"/>
@@ -3282,9 +3291,9 @@
         <v>42</v>
       </c>
       <c r="G17" s="12"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="110"/>
       <c r="L17" s="35"/>
       <c r="M17" s="35"/>
       <c r="N17" s="35"/>
@@ -3350,30 +3359,30 @@
       </c>
       <c r="G19" s="12"/>
       <c r="J19" s="47" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="K19" s="48"/>
       <c r="L19" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M19" s="35"/>
       <c r="N19" s="51"/>
       <c r="O19" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P19" s="35"/>
       <c r="Q19" s="52"/>
       <c r="R19" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T19" s="56"/>
       <c r="U19" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V19" s="35"/>
       <c r="W19" s="58"/>
       <c r="X19" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y19" s="67"/>
       <c r="Z19" s="35"/>
@@ -3391,26 +3400,28 @@
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
-      <c r="J20" s="35"/>
+      <c r="J20" s="79" t="s">
+        <v>156</v>
+      </c>
       <c r="K20" s="49"/>
       <c r="L20" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M20" s="35"/>
       <c r="N20" s="55"/>
       <c r="O20" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P20" s="35"/>
       <c r="Q20" s="53"/>
       <c r="R20" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S20" s="35"/>
       <c r="V20" s="35"/>
       <c r="W20" s="59"/>
       <c r="X20" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y20" s="67"/>
       <c r="Z20" s="35"/>
@@ -3432,21 +3443,23 @@
         <v>112</v>
       </c>
       <c r="G21" s="12"/>
-      <c r="J21" s="35"/>
+      <c r="J21" s="79" t="s">
+        <v>155</v>
+      </c>
       <c r="K21" s="50"/>
       <c r="L21" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M21" s="35"/>
       <c r="P21" s="35"/>
       <c r="Q21" s="54"/>
       <c r="R21" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S21" s="35"/>
       <c r="T21" s="57"/>
       <c r="U21" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V21" s="35"/>
       <c r="W21" s="35"/>
@@ -3521,157 +3534,157 @@
         <v>16</v>
       </c>
       <c r="B24" s="89"/>
-      <c r="C24" s="92" t="s">
+      <c r="C24" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="93"/>
-      <c r="S24" s="93"/>
-      <c r="T24" s="93"/>
-      <c r="U24" s="93"/>
-      <c r="V24" s="93"/>
-      <c r="W24" s="93"/>
-      <c r="X24" s="93"/>
-      <c r="Y24" s="93"/>
-      <c r="Z24" s="93"/>
-      <c r="AA24" s="94"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="91"/>
+      <c r="P24" s="91"/>
+      <c r="Q24" s="91"/>
+      <c r="R24" s="91"/>
+      <c r="S24" s="91"/>
+      <c r="T24" s="91"/>
+      <c r="U24" s="91"/>
+      <c r="V24" s="91"/>
+      <c r="W24" s="91"/>
+      <c r="X24" s="91"/>
+      <c r="Y24" s="91"/>
+      <c r="Z24" s="91"/>
+      <c r="AA24" s="92"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="95" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="96"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="96"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="96"/>
-      <c r="X25" s="96"/>
-      <c r="Y25" s="96"/>
-      <c r="Z25" s="96"/>
-      <c r="AA25" s="97"/>
+      <c r="C25" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="94"/>
+      <c r="T25" s="94"/>
+      <c r="U25" s="94"/>
+      <c r="V25" s="94"/>
+      <c r="W25" s="94"/>
+      <c r="X25" s="94"/>
+      <c r="Y25" s="94"/>
+      <c r="Z25" s="94"/>
+      <c r="AA25" s="95"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="95" t="s">
+      <c r="C26" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="96"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="96"/>
-      <c r="R26" s="96"/>
-      <c r="S26" s="96"/>
-      <c r="T26" s="96"/>
-      <c r="U26" s="96"/>
-      <c r="V26" s="96"/>
-      <c r="W26" s="96"/>
-      <c r="X26" s="96"/>
-      <c r="Y26" s="96"/>
-      <c r="Z26" s="96"/>
-      <c r="AA26" s="97"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="94"/>
+      <c r="S26" s="94"/>
+      <c r="T26" s="94"/>
+      <c r="U26" s="94"/>
+      <c r="V26" s="94"/>
+      <c r="W26" s="94"/>
+      <c r="X26" s="94"/>
+      <c r="Y26" s="94"/>
+      <c r="Z26" s="94"/>
+      <c r="AA26" s="95"/>
     </row>
     <row r="27" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="98" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="99"/>
-      <c r="P27" s="99"/>
-      <c r="Q27" s="99"/>
-      <c r="R27" s="99"/>
-      <c r="S27" s="99"/>
-      <c r="T27" s="99"/>
-      <c r="U27" s="99"/>
-      <c r="V27" s="99"/>
-      <c r="W27" s="99"/>
-      <c r="X27" s="99"/>
-      <c r="Y27" s="99"/>
-      <c r="Z27" s="99"/>
-      <c r="AA27" s="100"/>
+      <c r="C27" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="97"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="97"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="97"/>
+      <c r="S27" s="97"/>
+      <c r="T27" s="97"/>
+      <c r="U27" s="97"/>
+      <c r="V27" s="97"/>
+      <c r="W27" s="97"/>
+      <c r="X27" s="97"/>
+      <c r="Y27" s="97"/>
+      <c r="Z27" s="97"/>
+      <c r="AA27" s="98"/>
     </row>
     <row r="29" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="85" t="s">
+      <c r="A29" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="85"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="85"/>
-      <c r="R29" s="85"/>
-      <c r="S29" s="85"/>
-      <c r="T29" s="85"/>
-      <c r="U29" s="85"/>
-      <c r="V29" s="85"/>
-      <c r="W29" s="85"/>
-      <c r="X29" s="85"/>
-      <c r="Y29" s="85"/>
-      <c r="Z29" s="85"/>
-      <c r="AA29" s="85"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="111"/>
+      <c r="P29" s="111"/>
+      <c r="Q29" s="111"/>
+      <c r="R29" s="111"/>
+      <c r="S29" s="111"/>
+      <c r="T29" s="111"/>
+      <c r="U29" s="111"/>
+      <c r="V29" s="111"/>
+      <c r="W29" s="111"/>
+      <c r="X29" s="111"/>
+      <c r="Y29" s="111"/>
+      <c r="Z29" s="111"/>
+      <c r="AA29" s="111"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -4506,35 +4519,35 @@
       <c r="M55" s="10"/>
     </row>
     <row r="56" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="85" t="s">
+      <c r="A56" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="85"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="85"/>
-      <c r="H56" s="85"/>
-      <c r="I56" s="85"/>
-      <c r="J56" s="85"/>
-      <c r="K56" s="85"/>
-      <c r="L56" s="85"/>
-      <c r="M56" s="85"/>
-      <c r="N56" s="85"/>
-      <c r="O56" s="85"/>
-      <c r="P56" s="85"/>
-      <c r="Q56" s="85"/>
-      <c r="R56" s="85"/>
-      <c r="S56" s="85"/>
-      <c r="T56" s="85"/>
-      <c r="U56" s="85"/>
-      <c r="V56" s="85"/>
-      <c r="W56" s="85"/>
-      <c r="X56" s="85"/>
-      <c r="Y56" s="85"/>
-      <c r="Z56" s="85"/>
-      <c r="AA56" s="85"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="111"/>
+      <c r="D56" s="111"/>
+      <c r="E56" s="111"/>
+      <c r="F56" s="111"/>
+      <c r="G56" s="111"/>
+      <c r="H56" s="111"/>
+      <c r="I56" s="111"/>
+      <c r="J56" s="111"/>
+      <c r="K56" s="111"/>
+      <c r="L56" s="111"/>
+      <c r="M56" s="111"/>
+      <c r="N56" s="111"/>
+      <c r="O56" s="111"/>
+      <c r="P56" s="111"/>
+      <c r="Q56" s="111"/>
+      <c r="R56" s="111"/>
+      <c r="S56" s="111"/>
+      <c r="T56" s="111"/>
+      <c r="U56" s="111"/>
+      <c r="V56" s="111"/>
+      <c r="W56" s="111"/>
+      <c r="X56" s="111"/>
+      <c r="Y56" s="111"/>
+      <c r="Z56" s="111"/>
+      <c r="AA56" s="111"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
@@ -5289,6 +5302,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A29:AA29"/>
+    <mergeCell ref="A56:AA56"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="M3:AA14"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:AA24"/>
@@ -5302,15 +5324,6 @@
     <mergeCell ref="C25:AA25"/>
     <mergeCell ref="C8:G9"/>
     <mergeCell ref="I12:K17"/>
-    <mergeCell ref="A29:AA29"/>
-    <mergeCell ref="A56:AA56"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="M3:AA14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5336,20 +5349,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="91" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
+      <c r="A1" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S2" s="7"/>
@@ -5372,31 +5385,31 @@
         <v>12</v>
       </c>
       <c r="B3" s="89"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="102"/>
       <c r="J3" s="89" t="s">
         <v>37</v>
       </c>
       <c r="K3" s="89"/>
       <c r="L3" s="89"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="112"/>
+      <c r="S3" s="112"/>
+      <c r="T3" s="112"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="112"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="112"/>
+      <c r="Y3" s="112"/>
+      <c r="Z3" s="112"/>
+      <c r="AA3" s="112"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
@@ -5408,31 +5421,31 @@
         <v>14</v>
       </c>
       <c r="B4" s="89"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102"/>
       <c r="J4" s="89" t="s">
         <v>36</v>
       </c>
       <c r="K4" s="89"/>
       <c r="L4" s="89"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="112"/>
+      <c r="T4" s="112"/>
+      <c r="U4" s="112"/>
+      <c r="V4" s="112"/>
+      <c r="W4" s="112"/>
+      <c r="X4" s="112"/>
+      <c r="Y4" s="112"/>
+      <c r="Z4" s="112"/>
+      <c r="AA4" s="112"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
@@ -5441,26 +5454,26 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I5"/>
-      <c r="J5" s="101" t="s">
+      <c r="J5" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="90"/>
-      <c r="AA5" s="90"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="112"/>
+      <c r="T5" s="112"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="112"/>
+      <c r="W5" s="112"/>
+      <c r="X5" s="112"/>
+      <c r="Y5" s="112"/>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="112"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
@@ -5472,26 +5485,26 @@
         <v>13</v>
       </c>
       <c r="B6" s="89"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="90"/>
-      <c r="AA6" s="90"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="112"/>
+      <c r="R6" s="112"/>
+      <c r="S6" s="112"/>
+      <c r="T6" s="112"/>
+      <c r="U6" s="112"/>
+      <c r="V6" s="112"/>
+      <c r="W6" s="112"/>
+      <c r="X6" s="112"/>
+      <c r="Y6" s="112"/>
+      <c r="Z6" s="112"/>
+      <c r="AA6" s="112"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
@@ -5503,26 +5516,26 @@
         <v>15</v>
       </c>
       <c r="B7" s="89"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="88"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="90"/>
-      <c r="AA7" s="90"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="102"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="112"/>
+      <c r="W7" s="112"/>
+      <c r="X7" s="112"/>
+      <c r="Y7" s="112"/>
+      <c r="Z7" s="112"/>
+      <c r="AA7" s="112"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
@@ -5534,31 +5547,31 @@
       <c r="B8" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="104"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="105"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="90"/>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="90"/>
-      <c r="X8" s="90"/>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="90"/>
-      <c r="AA8" s="90"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="112"/>
+      <c r="R8" s="112"/>
+      <c r="S8" s="112"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="112"/>
+      <c r="W8" s="112"/>
+      <c r="X8" s="112"/>
+      <c r="Y8" s="112"/>
+      <c r="Z8" s="112"/>
+      <c r="AA8" s="112"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
@@ -5568,31 +5581,31 @@
     <row r="9" spans="1:32" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="107"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="108"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="90"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="112"/>
+      <c r="Q9" s="112"/>
+      <c r="R9" s="112"/>
+      <c r="S9" s="112"/>
+      <c r="T9" s="112"/>
+      <c r="U9" s="112"/>
+      <c r="V9" s="112"/>
+      <c r="W9" s="112"/>
+      <c r="X9" s="112"/>
+      <c r="Y9" s="112"/>
+      <c r="Z9" s="112"/>
+      <c r="AA9" s="112"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
@@ -5607,21 +5620,21 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="90"/>
-      <c r="Y10" s="90"/>
-      <c r="Z10" s="90"/>
-      <c r="AA10" s="90"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="112"/>
+      <c r="Q10" s="112"/>
+      <c r="R10" s="112"/>
+      <c r="S10" s="112"/>
+      <c r="T10" s="112"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="112"/>
+      <c r="AA10" s="112"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
@@ -5633,27 +5646,27 @@
       <c r="C11" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="86"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="88"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="90"/>
-      <c r="AA11" s="90"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="102"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="112"/>
+      <c r="R11" s="112"/>
+      <c r="S11" s="112"/>
+      <c r="T11" s="112"/>
+      <c r="U11" s="112"/>
+      <c r="V11" s="112"/>
+      <c r="W11" s="112"/>
+      <c r="X11" s="112"/>
+      <c r="Y11" s="112"/>
+      <c r="Z11" s="112"/>
+      <c r="AA11" s="112"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
@@ -5663,21 +5676,21 @@
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="90"/>
-      <c r="AA12" s="90"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="112"/>
+      <c r="R12" s="112"/>
+      <c r="S12" s="112"/>
+      <c r="T12" s="112"/>
+      <c r="U12" s="112"/>
+      <c r="V12" s="112"/>
+      <c r="W12" s="112"/>
+      <c r="X12" s="112"/>
+      <c r="Y12" s="112"/>
+      <c r="Z12" s="112"/>
+      <c r="AA12" s="112"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
@@ -5694,23 +5707,23 @@
       <c r="H13" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="I13" s="86"/>
-      <c r="J13" s="88"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="90"/>
-      <c r="W13" s="90"/>
-      <c r="X13" s="90"/>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="90"/>
-      <c r="AA13" s="90"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="102"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="112"/>
+      <c r="S13" s="112"/>
+      <c r="T13" s="112"/>
+      <c r="U13" s="112"/>
+      <c r="V13" s="112"/>
+      <c r="W13" s="112"/>
+      <c r="X13" s="112"/>
+      <c r="Y13" s="112"/>
+      <c r="Z13" s="112"/>
+      <c r="AA13" s="112"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
@@ -5748,8 +5761,8 @@
       <c r="H15" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="I15" s="86"/>
-      <c r="J15" s="88"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="102"/>
       <c r="K15" s="76"/>
       <c r="L15" s="76"/>
     </row>
@@ -5761,11 +5774,17 @@
       <c r="H17" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="86"/>
-      <c r="J17" s="88"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="J3:L3"/>
     <mergeCell ref="M3:AA13"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:G4"/>
@@ -5778,12 +5797,6 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G9"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5807,20 +5820,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="91" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
+      <c r="A1" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="S2" s="7"/>
@@ -5840,28 +5853,28 @@
         <v>12</v>
       </c>
       <c r="B3" s="89"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="102"/>
       <c r="J3" s="89" t="s">
         <v>37</v>
       </c>
       <c r="K3" s="89"/>
       <c r="L3" s="89"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="112"/>
+      <c r="S3" s="112"/>
+      <c r="T3" s="112"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="112"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="112"/>
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
@@ -5873,28 +5886,28 @@
         <v>14</v>
       </c>
       <c r="B4" s="89"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102"/>
       <c r="J4" s="89" t="s">
         <v>36</v>
       </c>
       <c r="K4" s="89"/>
       <c r="L4" s="89"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="112"/>
+      <c r="T4" s="112"/>
+      <c r="U4" s="112"/>
+      <c r="V4" s="112"/>
+      <c r="W4" s="112"/>
+      <c r="X4" s="112"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
@@ -5903,21 +5916,21 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="I5"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="90"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="112"/>
+      <c r="T5" s="112"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="112"/>
+      <c r="W5" s="112"/>
+      <c r="X5" s="112"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -5929,23 +5942,23 @@
         <v>13</v>
       </c>
       <c r="B6" s="89"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="112"/>
+      <c r="R6" s="112"/>
+      <c r="S6" s="112"/>
+      <c r="T6" s="112"/>
+      <c r="U6" s="112"/>
+      <c r="V6" s="112"/>
+      <c r="W6" s="112"/>
+      <c r="X6" s="112"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
@@ -5957,23 +5970,23 @@
         <v>15</v>
       </c>
       <c r="B7" s="89"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="88"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="90"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="102"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="112"/>
+      <c r="W7" s="112"/>
+      <c r="X7" s="112"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
@@ -5985,28 +5998,28 @@
       <c r="B8" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="104"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="105"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="90"/>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="90"/>
-      <c r="X8" s="90"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="112"/>
+      <c r="R8" s="112"/>
+      <c r="S8" s="112"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="112"/>
+      <c r="W8" s="112"/>
+      <c r="X8" s="112"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
@@ -6016,28 +6029,28 @@
     <row r="9" spans="1:29" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="107"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="108"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="90"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="112"/>
+      <c r="Q9" s="112"/>
+      <c r="R9" s="112"/>
+      <c r="S9" s="112"/>
+      <c r="T9" s="112"/>
+      <c r="U9" s="112"/>
+      <c r="V9" s="112"/>
+      <c r="W9" s="112"/>
+      <c r="X9" s="112"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
@@ -6052,18 +6065,18 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="90"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="112"/>
+      <c r="Q10" s="112"/>
+      <c r="R10" s="112"/>
+      <c r="S10" s="112"/>
+      <c r="T10" s="112"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
@@ -6077,20 +6090,20 @@
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="90"/>
+        <v>145</v>
+      </c>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="112"/>
+      <c r="R11" s="112"/>
+      <c r="S11" s="112"/>
+      <c r="T11" s="112"/>
+      <c r="U11" s="112"/>
+      <c r="V11" s="112"/>
+      <c r="W11" s="112"/>
+      <c r="X11" s="112"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
@@ -6101,22 +6114,22 @@
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="117"/>
+      <c r="E12" s="80"/>
       <c r="F12" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="90"/>
+        <v>146</v>
+      </c>
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="112"/>
+      <c r="R12" s="112"/>
+      <c r="S12" s="112"/>
+      <c r="T12" s="112"/>
+      <c r="U12" s="112"/>
+      <c r="V12" s="112"/>
+      <c r="W12" s="112"/>
+      <c r="X12" s="112"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
@@ -6130,22 +6143,22 @@
       <c r="D13" s="11"/>
       <c r="E13" s="25"/>
       <c r="F13" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="90"/>
-      <c r="W13" s="90"/>
-      <c r="X13" s="90"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="112"/>
+      <c r="S13" s="112"/>
+      <c r="T13" s="112"/>
+      <c r="U13" s="112"/>
+      <c r="V13" s="112"/>
+      <c r="W13" s="112"/>
+      <c r="X13" s="112"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
@@ -6175,86 +6188,86 @@
         <v>16</v>
       </c>
       <c r="B15" s="89"/>
-      <c r="C15" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="93"/>
-      <c r="X15" s="94"/>
+      <c r="C15" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="91"/>
+      <c r="S15" s="91"/>
+      <c r="T15" s="91"/>
+      <c r="U15" s="91"/>
+      <c r="V15" s="91"/>
+      <c r="W15" s="91"/>
+      <c r="X15" s="92"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="95" t="s">
+      <c r="C16" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="96"/>
-      <c r="R16" s="96"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="96"/>
-      <c r="U16" s="96"/>
-      <c r="V16" s="96"/>
-      <c r="W16" s="96"/>
-      <c r="X16" s="97"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="94"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="95"/>
     </row>
     <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="98" t="s">
+      <c r="C17" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="99"/>
-      <c r="S17" s="99"/>
-      <c r="T17" s="99"/>
-      <c r="U17" s="99"/>
-      <c r="V17" s="99"/>
-      <c r="W17" s="99"/>
-      <c r="X17" s="100"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="97"/>
+      <c r="S17" s="97"/>
+      <c r="T17" s="97"/>
+      <c r="U17" s="97"/>
+      <c r="V17" s="97"/>
+      <c r="W17" s="97"/>
+      <c r="X17" s="98"/>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="27" t="s">
@@ -6271,233 +6284,275 @@
       </c>
       <c r="H19" s="114"/>
       <c r="I19" s="114" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J19" s="114"/>
       <c r="K19" s="27" t="s">
         <v>103</v>
       </c>
       <c r="L19" s="114" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M19" s="114"/>
       <c r="N19" s="114" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O19" s="114"/>
       <c r="P19" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="114"/>
-      <c r="R19" s="111" t="s">
+      <c r="R19" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="S19" s="111"/>
-      <c r="T19" s="111"/>
-      <c r="U19" s="111"/>
-      <c r="V19" s="111"/>
-      <c r="W19" s="111"/>
-      <c r="X19" s="111"/>
+      <c r="S19" s="116"/>
+      <c r="T19" s="116"/>
+      <c r="U19" s="116"/>
+      <c r="V19" s="116"/>
+      <c r="W19" s="116"/>
+      <c r="X19" s="116"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
       <c r="I20" s="115"/>
       <c r="J20" s="115"/>
       <c r="K20" s="38"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
       <c r="N20" s="115"/>
       <c r="O20" s="115"/>
       <c r="P20" s="115"/>
       <c r="Q20" s="115"/>
-      <c r="R20" s="112"/>
-      <c r="S20" s="112"/>
-      <c r="T20" s="112"/>
-      <c r="U20" s="112"/>
-      <c r="V20" s="112"/>
-      <c r="W20" s="112"/>
-      <c r="X20" s="112"/>
+      <c r="R20" s="117"/>
+      <c r="S20" s="117"/>
+      <c r="T20" s="117"/>
+      <c r="U20" s="117"/>
+      <c r="V20" s="117"/>
+      <c r="W20" s="117"/>
+      <c r="X20" s="117"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
       <c r="K21" s="38"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="110"/>
-      <c r="N21" s="110"/>
-      <c r="O21" s="110"/>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="110"/>
-      <c r="R21" s="113"/>
-      <c r="S21" s="113"/>
-      <c r="T21" s="113"/>
-      <c r="U21" s="113"/>
-      <c r="V21" s="113"/>
-      <c r="W21" s="113"/>
-      <c r="X21" s="113"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="113"/>
+      <c r="Q21" s="113"/>
+      <c r="R21" s="118"/>
+      <c r="S21" s="118"/>
+      <c r="T21" s="118"/>
+      <c r="U21" s="118"/>
+      <c r="V21" s="118"/>
+      <c r="W21" s="118"/>
+      <c r="X21" s="118"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B22" s="10">
         <v>3</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
       <c r="K22" s="38"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="110"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="110"/>
-      <c r="R22" s="113"/>
-      <c r="S22" s="113"/>
-      <c r="T22" s="113"/>
-      <c r="U22" s="113"/>
-      <c r="V22" s="113"/>
-      <c r="W22" s="113"/>
-      <c r="X22" s="113"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="113"/>
+      <c r="Q22" s="113"/>
+      <c r="R22" s="118"/>
+      <c r="S22" s="118"/>
+      <c r="T22" s="118"/>
+      <c r="U22" s="118"/>
+      <c r="V22" s="118"/>
+      <c r="W22" s="118"/>
+      <c r="X22" s="118"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
         <v>4</v>
       </c>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
       <c r="K23" s="38"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="110"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="110"/>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="110"/>
-      <c r="R23" s="113"/>
-      <c r="S23" s="113"/>
-      <c r="T23" s="113"/>
-      <c r="U23" s="113"/>
-      <c r="V23" s="113"/>
-      <c r="W23" s="113"/>
-      <c r="X23" s="113"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="113"/>
+      <c r="Q23" s="113"/>
+      <c r="R23" s="118"/>
+      <c r="S23" s="118"/>
+      <c r="T23" s="118"/>
+      <c r="U23" s="118"/>
+      <c r="V23" s="118"/>
+      <c r="W23" s="118"/>
+      <c r="X23" s="118"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B24" s="10">
         <v>5</v>
       </c>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="113"/>
       <c r="K24" s="38"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="110"/>
-      <c r="N24" s="110"/>
-      <c r="O24" s="110"/>
-      <c r="P24" s="110"/>
-      <c r="Q24" s="110"/>
-      <c r="R24" s="113"/>
-      <c r="S24" s="113"/>
-      <c r="T24" s="113"/>
-      <c r="U24" s="113"/>
-      <c r="V24" s="113"/>
-      <c r="W24" s="113"/>
-      <c r="X24" s="113"/>
+      <c r="L24" s="113"/>
+      <c r="M24" s="113"/>
+      <c r="N24" s="113"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="113"/>
+      <c r="Q24" s="113"/>
+      <c r="R24" s="118"/>
+      <c r="S24" s="118"/>
+      <c r="T24" s="118"/>
+      <c r="U24" s="118"/>
+      <c r="V24" s="118"/>
+      <c r="W24" s="118"/>
+      <c r="X24" s="118"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
         <v>6</v>
       </c>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="113"/>
       <c r="K25" s="38"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="110"/>
-      <c r="P25" s="110"/>
-      <c r="Q25" s="110"/>
-      <c r="R25" s="113"/>
-      <c r="S25" s="113"/>
-      <c r="T25" s="113"/>
-      <c r="U25" s="113"/>
-      <c r="V25" s="113"/>
-      <c r="W25" s="113"/>
-      <c r="X25" s="113"/>
+      <c r="L25" s="113"/>
+      <c r="M25" s="113"/>
+      <c r="N25" s="113"/>
+      <c r="O25" s="113"/>
+      <c r="P25" s="113"/>
+      <c r="Q25" s="113"/>
+      <c r="R25" s="118"/>
+      <c r="S25" s="118"/>
+      <c r="T25" s="118"/>
+      <c r="U25" s="118"/>
+      <c r="V25" s="118"/>
+      <c r="W25" s="118"/>
+      <c r="X25" s="118"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="113"/>
       <c r="K26" s="38"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="110"/>
-      <c r="N26" s="110"/>
-      <c r="O26" s="110"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="110"/>
-      <c r="R26" s="113"/>
-      <c r="S26" s="113"/>
-      <c r="T26" s="113"/>
-      <c r="U26" s="113"/>
-      <c r="V26" s="113"/>
-      <c r="W26" s="113"/>
-      <c r="X26" s="113"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="113"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="113"/>
+      <c r="P26" s="113"/>
+      <c r="Q26" s="113"/>
+      <c r="R26" s="118"/>
+      <c r="S26" s="118"/>
+      <c r="T26" s="118"/>
+      <c r="U26" s="118"/>
+      <c r="V26" s="118"/>
+      <c r="W26" s="118"/>
+      <c r="X26" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R19:X19"/>
+    <mergeCell ref="R20:X20"/>
+    <mergeCell ref="R21:X21"/>
+    <mergeCell ref="R22:X22"/>
+    <mergeCell ref="R23:X23"/>
+    <mergeCell ref="R24:X24"/>
+    <mergeCell ref="R25:X25"/>
+    <mergeCell ref="R26:X26"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:X13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C8:G9"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C16:X16"/>
+    <mergeCell ref="C17:X17"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C15:X15"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="I24:J24"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="I26:J26"/>
@@ -6514,56 +6569,14 @@
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C16:X16"/>
-    <mergeCell ref="C17:X17"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C15:X15"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:X13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C8:G9"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R19:X19"/>
-    <mergeCell ref="R20:X20"/>
-    <mergeCell ref="R21:X21"/>
-    <mergeCell ref="R22:X22"/>
-    <mergeCell ref="R23:X23"/>
-    <mergeCell ref="R24:X24"/>
-    <mergeCell ref="R25:X25"/>
-    <mergeCell ref="R26:X26"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6587,20 +6600,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="91" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
+      <c r="A1" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S2" s="7"/>
@@ -6623,31 +6636,31 @@
         <v>12</v>
       </c>
       <c r="B3" s="89"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="102"/>
       <c r="J3" s="89" t="s">
         <v>37</v>
       </c>
       <c r="K3" s="89"/>
       <c r="L3" s="89"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="112"/>
+      <c r="S3" s="112"/>
+      <c r="T3" s="112"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="112"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="112"/>
+      <c r="Y3" s="112"/>
+      <c r="Z3" s="112"/>
+      <c r="AA3" s="112"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
@@ -6659,31 +6672,31 @@
         <v>14</v>
       </c>
       <c r="B4" s="89"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102"/>
       <c r="J4" s="89" t="s">
         <v>36</v>
       </c>
       <c r="K4" s="89"/>
       <c r="L4" s="89"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="112"/>
+      <c r="T4" s="112"/>
+      <c r="U4" s="112"/>
+      <c r="V4" s="112"/>
+      <c r="W4" s="112"/>
+      <c r="X4" s="112"/>
+      <c r="Y4" s="112"/>
+      <c r="Z4" s="112"/>
+      <c r="AA4" s="112"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
@@ -6692,26 +6705,26 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I5"/>
-      <c r="J5" s="101" t="s">
+      <c r="J5" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="90"/>
-      <c r="AA5" s="90"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="112"/>
+      <c r="T5" s="112"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="112"/>
+      <c r="W5" s="112"/>
+      <c r="X5" s="112"/>
+      <c r="Y5" s="112"/>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="112"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
@@ -6723,26 +6736,26 @@
         <v>13</v>
       </c>
       <c r="B6" s="89"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="90"/>
-      <c r="AA6" s="90"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="112"/>
+      <c r="R6" s="112"/>
+      <c r="S6" s="112"/>
+      <c r="T6" s="112"/>
+      <c r="U6" s="112"/>
+      <c r="V6" s="112"/>
+      <c r="W6" s="112"/>
+      <c r="X6" s="112"/>
+      <c r="Y6" s="112"/>
+      <c r="Z6" s="112"/>
+      <c r="AA6" s="112"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
@@ -6754,26 +6767,26 @@
         <v>15</v>
       </c>
       <c r="B7" s="89"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="88"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="90"/>
-      <c r="AA7" s="90"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="102"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="112"/>
+      <c r="W7" s="112"/>
+      <c r="X7" s="112"/>
+      <c r="Y7" s="112"/>
+      <c r="Z7" s="112"/>
+      <c r="AA7" s="112"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
@@ -6785,31 +6798,31 @@
       <c r="B8" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="104"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="105"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="90"/>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="90"/>
-      <c r="X8" s="90"/>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="90"/>
-      <c r="AA8" s="90"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="112"/>
+      <c r="R8" s="112"/>
+      <c r="S8" s="112"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="112"/>
+      <c r="W8" s="112"/>
+      <c r="X8" s="112"/>
+      <c r="Y8" s="112"/>
+      <c r="Z8" s="112"/>
+      <c r="AA8" s="112"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
@@ -6819,31 +6832,31 @@
     <row r="9" spans="1:32" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="107"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="108"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="90"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="112"/>
+      <c r="Q9" s="112"/>
+      <c r="R9" s="112"/>
+      <c r="S9" s="112"/>
+      <c r="T9" s="112"/>
+      <c r="U9" s="112"/>
+      <c r="V9" s="112"/>
+      <c r="W9" s="112"/>
+      <c r="X9" s="112"/>
+      <c r="Y9" s="112"/>
+      <c r="Z9" s="112"/>
+      <c r="AA9" s="112"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
@@ -6858,21 +6871,21 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="90"/>
-      <c r="Y10" s="90"/>
-      <c r="Z10" s="90"/>
-      <c r="AA10" s="90"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="112"/>
+      <c r="Q10" s="112"/>
+      <c r="R10" s="112"/>
+      <c r="S10" s="112"/>
+      <c r="T10" s="112"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="112"/>
+      <c r="AA10" s="112"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
@@ -6886,23 +6899,23 @@
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="90"/>
-      <c r="AA11" s="90"/>
+        <v>149</v>
+      </c>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="112"/>
+      <c r="R11" s="112"/>
+      <c r="S11" s="112"/>
+      <c r="T11" s="112"/>
+      <c r="U11" s="112"/>
+      <c r="V11" s="112"/>
+      <c r="W11" s="112"/>
+      <c r="X11" s="112"/>
+      <c r="Y11" s="112"/>
+      <c r="Z11" s="112"/>
+      <c r="AA11" s="112"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
@@ -6915,23 +6928,23 @@
       <c r="D12" s="13"/>
       <c r="E12" s="44"/>
       <c r="F12" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="90"/>
-      <c r="AA12" s="90"/>
+        <v>150</v>
+      </c>
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="112"/>
+      <c r="R12" s="112"/>
+      <c r="S12" s="112"/>
+      <c r="T12" s="112"/>
+      <c r="U12" s="112"/>
+      <c r="V12" s="112"/>
+      <c r="W12" s="112"/>
+      <c r="X12" s="112"/>
+      <c r="Y12" s="112"/>
+      <c r="Z12" s="112"/>
+      <c r="AA12" s="112"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
@@ -6945,26 +6958,26 @@
       <c r="D13" s="11"/>
       <c r="E13" s="45"/>
       <c r="F13" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="90"/>
-      <c r="W13" s="90"/>
-      <c r="X13" s="90"/>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="90"/>
-      <c r="AA13" s="90"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="112"/>
+      <c r="S13" s="112"/>
+      <c r="T13" s="112"/>
+      <c r="U13" s="112"/>
+      <c r="V13" s="112"/>
+      <c r="W13" s="112"/>
+      <c r="X13" s="112"/>
+      <c r="Y13" s="112"/>
+      <c r="Z13" s="112"/>
+      <c r="AA13" s="112"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
@@ -6978,7 +6991,7 @@
       <c r="D14" s="11"/>
       <c r="E14" s="42"/>
       <c r="F14" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -7014,7 +7027,7 @@
       <c r="D15" s="11"/>
       <c r="E15" s="37"/>
       <c r="F15" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -7069,157 +7082,157 @@
         <v>16</v>
       </c>
       <c r="B17" s="89"/>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="93"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="93"/>
-      <c r="U17" s="93"/>
-      <c r="V17" s="93"/>
-      <c r="W17" s="93"/>
-      <c r="X17" s="93"/>
-      <c r="Y17" s="93"/>
-      <c r="Z17" s="93"/>
-      <c r="AA17" s="94"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="91"/>
+      <c r="S17" s="91"/>
+      <c r="T17" s="91"/>
+      <c r="U17" s="91"/>
+      <c r="V17" s="91"/>
+      <c r="W17" s="91"/>
+      <c r="X17" s="91"/>
+      <c r="Y17" s="91"/>
+      <c r="Z17" s="91"/>
+      <c r="AA17" s="92"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="95" t="s">
+      <c r="C18" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="96"/>
-      <c r="S18" s="96"/>
-      <c r="T18" s="96"/>
-      <c r="U18" s="96"/>
-      <c r="V18" s="96"/>
-      <c r="W18" s="96"/>
-      <c r="X18" s="96"/>
-      <c r="Y18" s="96"/>
-      <c r="Z18" s="96"/>
-      <c r="AA18" s="97"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
+      <c r="Z18" s="94"/>
+      <c r="AA18" s="95"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="95" t="s">
+      <c r="C19" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="96"/>
-      <c r="S19" s="96"/>
-      <c r="T19" s="96"/>
-      <c r="U19" s="96"/>
-      <c r="V19" s="96"/>
-      <c r="W19" s="96"/>
-      <c r="X19" s="96"/>
-      <c r="Y19" s="96"/>
-      <c r="Z19" s="96"/>
-      <c r="AA19" s="97"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="94"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="94"/>
+      <c r="Z19" s="94"/>
+      <c r="AA19" s="95"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
-      <c r="C20" s="98" t="s">
+      <c r="C20" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="99"/>
-      <c r="S20" s="99"/>
-      <c r="T20" s="99"/>
-      <c r="U20" s="99"/>
-      <c r="V20" s="99"/>
-      <c r="W20" s="99"/>
-      <c r="X20" s="99"/>
-      <c r="Y20" s="99"/>
-      <c r="Z20" s="99"/>
-      <c r="AA20" s="100"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="97"/>
+      <c r="N20" s="97"/>
+      <c r="O20" s="97"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="97"/>
+      <c r="S20" s="97"/>
+      <c r="T20" s="97"/>
+      <c r="U20" s="97"/>
+      <c r="V20" s="97"/>
+      <c r="W20" s="97"/>
+      <c r="X20" s="97"/>
+      <c r="Y20" s="97"/>
+      <c r="Z20" s="97"/>
+      <c r="AA20" s="98"/>
     </row>
     <row r="22" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="85" t="s">
+      <c r="A22" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="85"/>
-      <c r="U22" s="85"/>
-      <c r="V22" s="85"/>
-      <c r="W22" s="85"/>
-      <c r="X22" s="85"/>
-      <c r="Y22" s="85"/>
-      <c r="Z22" s="85"/>
-      <c r="AA22" s="85"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="111"/>
+      <c r="T22" s="111"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="111"/>
+      <c r="W22" s="111"/>
+      <c r="X22" s="111"/>
+      <c r="Y22" s="111"/>
+      <c r="Z22" s="111"/>
+      <c r="AA22" s="111"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -8018,35 +8031,35 @@
       <c r="J46" s="19"/>
     </row>
     <row r="49" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="85"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="85"/>
-      <c r="J49" s="85"/>
-      <c r="K49" s="85"/>
-      <c r="L49" s="85"/>
-      <c r="M49" s="85"/>
-      <c r="N49" s="85"/>
-      <c r="O49" s="85"/>
-      <c r="P49" s="85"/>
-      <c r="Q49" s="85"/>
-      <c r="R49" s="85"/>
-      <c r="S49" s="85"/>
-      <c r="T49" s="85"/>
-      <c r="U49" s="85"/>
-      <c r="V49" s="85"/>
-      <c r="W49" s="85"/>
-      <c r="X49" s="85"/>
-      <c r="Y49" s="85"/>
-      <c r="Z49" s="85"/>
-      <c r="AA49" s="85"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="111"/>
+      <c r="F49" s="111"/>
+      <c r="G49" s="111"/>
+      <c r="H49" s="111"/>
+      <c r="I49" s="111"/>
+      <c r="J49" s="111"/>
+      <c r="K49" s="111"/>
+      <c r="L49" s="111"/>
+      <c r="M49" s="111"/>
+      <c r="N49" s="111"/>
+      <c r="O49" s="111"/>
+      <c r="P49" s="111"/>
+      <c r="Q49" s="111"/>
+      <c r="R49" s="111"/>
+      <c r="S49" s="111"/>
+      <c r="T49" s="111"/>
+      <c r="U49" s="111"/>
+      <c r="V49" s="111"/>
+      <c r="W49" s="111"/>
+      <c r="X49" s="111"/>
+      <c r="Y49" s="111"/>
+      <c r="Z49" s="111"/>
+      <c r="AA49" s="111"/>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -8793,6 +8806,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:AA13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="C19:AA19"/>
     <mergeCell ref="C20:AA20"/>
     <mergeCell ref="A22:AA22"/>
@@ -8804,16 +8827,6 @@
     <mergeCell ref="C17:AA17"/>
     <mergeCell ref="C18:AA18"/>
     <mergeCell ref="C8:G9"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:AA13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/IMR-SampleSubmissionSheet_v10(LASTNAME_MMMDD).xlsx
+++ b/docs/IMR-SampleSubmissionSheet_v10(LASTNAME_MMMDD).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBCF461-B3EC-4728-B1A2-39764CFC8A82}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8F2DB3-F7A8-4F2D-84A6-63117297086D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="742" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="742" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTIONS (read first)" sheetId="3" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="Genome Samples" sheetId="11" r:id="rId5"/>
     <sheet name="Metagenomic Samples" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="158">
   <si>
     <t xml:space="preserve">Plate 1 </t>
   </si>
@@ -1050,9 +1050,6 @@
     <t>For m(meta)transcriptome sequencing (NextSeq):</t>
   </si>
   <si>
-    <t>Coming soon!</t>
-  </si>
-  <si>
     <t>Amount:</t>
   </si>
   <si>
@@ -1092,9 +1089,6 @@
   </si>
   <si>
     <t xml:space="preserve"> MiSeq - ~0.9 million PE 300+300 bp reads = 540 Mb/genome</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PacBio - long-reads of variable size = ~2.0 Gb/genome</t>
   </si>
   <si>
     <t xml:space="preserve"> NextSeq - ~4 million PE 150+150 bp reads = 1.2 Gb/genome</t>
@@ -1149,6 +1143,15 @@
   </si>
   <si>
     <t>(separate PCRs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PacBio - ~2.0 Gb/Bact. Genome or ~12 Gb/cell for Euks</t>
+  </si>
+  <si>
+    <t>For Iso-Seq transcriptome sequencing (PacBio):</t>
+  </si>
+  <si>
+    <t>Inquire!</t>
   </si>
 </sst>
 </file>
@@ -1765,7 +1768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1981,21 +1984,35 @@
     <xf numFmtId="0" fontId="0" fillId="30" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2026,15 +2043,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2059,22 +2067,18 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2550,10 +2554,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2572,11 +2576,11 @@
       <c r="A2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
@@ -2611,32 +2615,32 @@
       <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
     </row>
     <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="83"/>
+      <c r="C9" s="87"/>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="84"/>
+      <c r="C10" s="88"/>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
     </row>
     <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
@@ -2659,25 +2663,25 @@
         <v>75</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
     </row>
     <row r="18" spans="1:3" s="78" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C18" s="77" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="78" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -2685,7 +2689,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="78" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -2693,18 +2697,18 @@
         <v>75</v>
       </c>
       <c r="C20" s="77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="16"/>
     </row>
     <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
     </row>
     <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
@@ -2727,26 +2731,41 @@
         <v>75</v>
       </c>
       <c r="C25" s="77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
     </row>
     <row r="27" spans="1:3" s="78" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
     </row>
     <row r="28" spans="1:3" s="78" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="21" t="s">
-        <v>139</v>
-      </c>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
+    </row>
+    <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="81"/>
+      <c r="B31" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="81"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A30:C30"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A22:C22"/>
@@ -2767,7 +2786,7 @@
   </sheetPr>
   <dimension ref="A1:AF78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M3:AA14"/>
     </sheetView>
   </sheetViews>
@@ -2777,20 +2796,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S2" s="7"/>
@@ -2809,35 +2828,35 @@
       <c r="AF2" s="7"/>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="102"/>
-      <c r="J3" s="89" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="92"/>
+      <c r="J3" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="112"/>
-      <c r="T3" s="112"/>
-      <c r="U3" s="112"/>
-      <c r="V3" s="112"/>
-      <c r="W3" s="112"/>
-      <c r="X3" s="112"/>
-      <c r="Y3" s="112"/>
-      <c r="Z3" s="112"/>
-      <c r="AA3" s="112"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
@@ -2845,35 +2864,35 @@
       <c r="AF3" s="7"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="102"/>
-      <c r="J4" s="89" t="s">
+      <c r="B4" s="93"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="92"/>
+      <c r="J4" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
-      <c r="U4" s="112"/>
-      <c r="V4" s="112"/>
-      <c r="W4" s="112"/>
-      <c r="X4" s="112"/>
-      <c r="Y4" s="112"/>
-      <c r="Z4" s="112"/>
-      <c r="AA4" s="112"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
@@ -2882,26 +2901,26 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I5"/>
-      <c r="J5" s="99" t="s">
+      <c r="J5" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="112"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="94"/>
+      <c r="AA5" s="94"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
@@ -2909,30 +2928,30 @@
       <c r="AF5" s="7"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="102"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="112"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="112"/>
-      <c r="R6" s="112"/>
-      <c r="S6" s="112"/>
-      <c r="T6" s="112"/>
-      <c r="U6" s="112"/>
-      <c r="V6" s="112"/>
-      <c r="W6" s="112"/>
-      <c r="X6" s="112"/>
-      <c r="Y6" s="112"/>
-      <c r="Z6" s="112"/>
-      <c r="AA6" s="112"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="92"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="94"/>
+      <c r="AA6" s="94"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
@@ -2940,30 +2959,30 @@
       <c r="AF6" s="7"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="112"/>
-      <c r="Y7" s="112"/>
-      <c r="Z7" s="112"/>
-      <c r="AA7" s="112"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="92"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="94"/>
+      <c r="W7" s="94"/>
+      <c r="X7" s="94"/>
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="94"/>
+      <c r="AA7" s="94"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
@@ -2975,31 +2994,31 @@
       <c r="B8" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="112"/>
-      <c r="W8" s="112"/>
-      <c r="X8" s="112"/>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="112"/>
-      <c r="AA8" s="112"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="94"/>
+      <c r="T8" s="94"/>
+      <c r="U8" s="94"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="94"/>
+      <c r="X8" s="94"/>
+      <c r="Y8" s="94"/>
+      <c r="Z8" s="94"/>
+      <c r="AA8" s="94"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
@@ -3009,31 +3028,31 @@
     <row r="9" spans="1:32" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="108"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="111"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="112"/>
-      <c r="R9" s="112"/>
-      <c r="S9" s="112"/>
-      <c r="T9" s="112"/>
-      <c r="U9" s="112"/>
-      <c r="V9" s="112"/>
-      <c r="W9" s="112"/>
-      <c r="X9" s="112"/>
-      <c r="Y9" s="112"/>
-      <c r="Z9" s="112"/>
-      <c r="AA9" s="112"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="94"/>
+      <c r="AA9" s="94"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
@@ -3053,21 +3072,21 @@
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
       <c r="L10" s="35"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="112"/>
-      <c r="R10" s="112"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="112"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="112"/>
-      <c r="AA10" s="112"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
+      <c r="Y10" s="94"/>
+      <c r="Z10" s="94"/>
+      <c r="AA10" s="94"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
@@ -3089,21 +3108,21 @@
       <c r="J11" s="64"/>
       <c r="K11" s="65"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="112"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
-      <c r="R11" s="112"/>
-      <c r="S11" s="112"/>
-      <c r="T11" s="112"/>
-      <c r="U11" s="112"/>
-      <c r="V11" s="112"/>
-      <c r="W11" s="112"/>
-      <c r="X11" s="112"/>
-      <c r="Y11" s="112"/>
-      <c r="Z11" s="112"/>
-      <c r="AA11" s="112"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="94"/>
+      <c r="V11" s="94"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="94"/>
+      <c r="Y11" s="94"/>
+      <c r="Z11" s="94"/>
+      <c r="AA11" s="94"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
@@ -3120,27 +3139,27 @@
       <c r="F12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="109" t="s">
+      <c r="I12" s="112" t="s">
         <v>135</v>
       </c>
-      <c r="J12" s="109"/>
-      <c r="K12" s="110"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="113"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
-      <c r="R12" s="112"/>
-      <c r="S12" s="112"/>
-      <c r="T12" s="112"/>
-      <c r="U12" s="112"/>
-      <c r="V12" s="112"/>
-      <c r="W12" s="112"/>
-      <c r="X12" s="112"/>
-      <c r="Y12" s="112"/>
-      <c r="Z12" s="112"/>
-      <c r="AA12" s="112"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="94"/>
+      <c r="Z12" s="94"/>
+      <c r="AA12" s="94"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
@@ -3155,25 +3174,25 @@
       <c r="F13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="109"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="110"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="113"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="112"/>
-      <c r="S13" s="112"/>
-      <c r="T13" s="112"/>
-      <c r="U13" s="112"/>
-      <c r="V13" s="112"/>
-      <c r="W13" s="112"/>
-      <c r="X13" s="112"/>
-      <c r="Y13" s="112"/>
-      <c r="Z13" s="112"/>
-      <c r="AA13" s="112"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="94"/>
+      <c r="AA13" s="94"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
@@ -3189,25 +3208,25 @@
         <v>41</v>
       </c>
       <c r="G14" s="12"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="110"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="113"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="112"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
-      <c r="R14" s="112"/>
-      <c r="S14" s="112"/>
-      <c r="T14" s="112"/>
-      <c r="U14" s="112"/>
-      <c r="V14" s="112"/>
-      <c r="W14" s="112"/>
-      <c r="X14" s="112"/>
-      <c r="Y14" s="112"/>
-      <c r="Z14" s="112"/>
-      <c r="AA14" s="112"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="94"/>
+      <c r="Z14" s="94"/>
+      <c r="AA14" s="94"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
@@ -3223,9 +3242,9 @@
         <v>106</v>
       </c>
       <c r="G15" s="12"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="110"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="113"/>
       <c r="L15" s="30"/>
       <c r="M15" s="30"/>
       <c r="N15" s="30"/>
@@ -3255,9 +3274,9 @@
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="12"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="110"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="113"/>
       <c r="L16" s="35"/>
       <c r="M16" s="35"/>
       <c r="N16" s="35"/>
@@ -3291,9 +3310,9 @@
         <v>42</v>
       </c>
       <c r="G17" s="12"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="110"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="113"/>
       <c r="L17" s="35"/>
       <c r="M17" s="35"/>
       <c r="N17" s="35"/>
@@ -3359,7 +3378,7 @@
       </c>
       <c r="G19" s="12"/>
       <c r="J19" s="47" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K19" s="48"/>
       <c r="L19" s="11" t="s">
@@ -3401,7 +3420,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
       <c r="J20" s="79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K20" s="49"/>
       <c r="L20" s="11" t="s">
@@ -3444,7 +3463,7 @@
       </c>
       <c r="G21" s="12"/>
       <c r="J21" s="79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K21" s="50"/>
       <c r="L21" s="11" t="s">
@@ -3530,161 +3549,161 @@
       <c r="AF23" s="7"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="89"/>
-      <c r="C24" s="90" t="s">
+      <c r="B24" s="93"/>
+      <c r="C24" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="91"/>
-      <c r="P24" s="91"/>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="91"/>
-      <c r="S24" s="91"/>
-      <c r="T24" s="91"/>
-      <c r="U24" s="91"/>
-      <c r="V24" s="91"/>
-      <c r="W24" s="91"/>
-      <c r="X24" s="91"/>
-      <c r="Y24" s="91"/>
-      <c r="Z24" s="91"/>
-      <c r="AA24" s="92"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="97"/>
+      <c r="N24" s="97"/>
+      <c r="O24" s="97"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="97"/>
+      <c r="S24" s="97"/>
+      <c r="T24" s="97"/>
+      <c r="U24" s="97"/>
+      <c r="V24" s="97"/>
+      <c r="W24" s="97"/>
+      <c r="X24" s="97"/>
+      <c r="Y24" s="97"/>
+      <c r="Z24" s="97"/>
+      <c r="AA24" s="98"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="93" t="s">
+      <c r="C25" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="94"/>
-      <c r="N25" s="94"/>
-      <c r="O25" s="94"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="94"/>
-      <c r="T25" s="94"/>
-      <c r="U25" s="94"/>
-      <c r="V25" s="94"/>
-      <c r="W25" s="94"/>
-      <c r="X25" s="94"/>
-      <c r="Y25" s="94"/>
-      <c r="Z25" s="94"/>
-      <c r="AA25" s="95"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="100"/>
+      <c r="Q25" s="100"/>
+      <c r="R25" s="100"/>
+      <c r="S25" s="100"/>
+      <c r="T25" s="100"/>
+      <c r="U25" s="100"/>
+      <c r="V25" s="100"/>
+      <c r="W25" s="100"/>
+      <c r="X25" s="100"/>
+      <c r="Y25" s="100"/>
+      <c r="Z25" s="100"/>
+      <c r="AA25" s="101"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="93" t="s">
+      <c r="C26" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="94"/>
-      <c r="S26" s="94"/>
-      <c r="T26" s="94"/>
-      <c r="U26" s="94"/>
-      <c r="V26" s="94"/>
-      <c r="W26" s="94"/>
-      <c r="X26" s="94"/>
-      <c r="Y26" s="94"/>
-      <c r="Z26" s="94"/>
-      <c r="AA26" s="95"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="100"/>
+      <c r="Q26" s="100"/>
+      <c r="R26" s="100"/>
+      <c r="S26" s="100"/>
+      <c r="T26" s="100"/>
+      <c r="U26" s="100"/>
+      <c r="V26" s="100"/>
+      <c r="W26" s="100"/>
+      <c r="X26" s="100"/>
+      <c r="Y26" s="100"/>
+      <c r="Z26" s="100"/>
+      <c r="AA26" s="101"/>
     </row>
     <row r="27" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="96" t="s">
+      <c r="C27" s="102" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="97"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="97"/>
-      <c r="Q27" s="97"/>
-      <c r="R27" s="97"/>
-      <c r="S27" s="97"/>
-      <c r="T27" s="97"/>
-      <c r="U27" s="97"/>
-      <c r="V27" s="97"/>
-      <c r="W27" s="97"/>
-      <c r="X27" s="97"/>
-      <c r="Y27" s="97"/>
-      <c r="Z27" s="97"/>
-      <c r="AA27" s="98"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="103"/>
+      <c r="P27" s="103"/>
+      <c r="Q27" s="103"/>
+      <c r="R27" s="103"/>
+      <c r="S27" s="103"/>
+      <c r="T27" s="103"/>
+      <c r="U27" s="103"/>
+      <c r="V27" s="103"/>
+      <c r="W27" s="103"/>
+      <c r="X27" s="103"/>
+      <c r="Y27" s="103"/>
+      <c r="Z27" s="103"/>
+      <c r="AA27" s="104"/>
     </row>
     <row r="29" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="111" t="s">
+      <c r="A29" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="111"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="111"/>
-      <c r="L29" s="111"/>
-      <c r="M29" s="111"/>
-      <c r="N29" s="111"/>
-      <c r="O29" s="111"/>
-      <c r="P29" s="111"/>
-      <c r="Q29" s="111"/>
-      <c r="R29" s="111"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="111"/>
-      <c r="U29" s="111"/>
-      <c r="V29" s="111"/>
-      <c r="W29" s="111"/>
-      <c r="X29" s="111"/>
-      <c r="Y29" s="111"/>
-      <c r="Z29" s="111"/>
-      <c r="AA29" s="111"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="89"/>
+      <c r="P29" s="89"/>
+      <c r="Q29" s="89"/>
+      <c r="R29" s="89"/>
+      <c r="S29" s="89"/>
+      <c r="T29" s="89"/>
+      <c r="U29" s="89"/>
+      <c r="V29" s="89"/>
+      <c r="W29" s="89"/>
+      <c r="X29" s="89"/>
+      <c r="Y29" s="89"/>
+      <c r="Z29" s="89"/>
+      <c r="AA29" s="89"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -4519,35 +4538,35 @@
       <c r="M55" s="10"/>
     </row>
     <row r="56" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="111" t="s">
+      <c r="A56" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="111"/>
-      <c r="C56" s="111"/>
-      <c r="D56" s="111"/>
-      <c r="E56" s="111"/>
-      <c r="F56" s="111"/>
-      <c r="G56" s="111"/>
-      <c r="H56" s="111"/>
-      <c r="I56" s="111"/>
-      <c r="J56" s="111"/>
-      <c r="K56" s="111"/>
-      <c r="L56" s="111"/>
-      <c r="M56" s="111"/>
-      <c r="N56" s="111"/>
-      <c r="O56" s="111"/>
-      <c r="P56" s="111"/>
-      <c r="Q56" s="111"/>
-      <c r="R56" s="111"/>
-      <c r="S56" s="111"/>
-      <c r="T56" s="111"/>
-      <c r="U56" s="111"/>
-      <c r="V56" s="111"/>
-      <c r="W56" s="111"/>
-      <c r="X56" s="111"/>
-      <c r="Y56" s="111"/>
-      <c r="Z56" s="111"/>
-      <c r="AA56" s="111"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="89"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="89"/>
+      <c r="H56" s="89"/>
+      <c r="I56" s="89"/>
+      <c r="J56" s="89"/>
+      <c r="K56" s="89"/>
+      <c r="L56" s="89"/>
+      <c r="M56" s="89"/>
+      <c r="N56" s="89"/>
+      <c r="O56" s="89"/>
+      <c r="P56" s="89"/>
+      <c r="Q56" s="89"/>
+      <c r="R56" s="89"/>
+      <c r="S56" s="89"/>
+      <c r="T56" s="89"/>
+      <c r="U56" s="89"/>
+      <c r="V56" s="89"/>
+      <c r="W56" s="89"/>
+      <c r="X56" s="89"/>
+      <c r="Y56" s="89"/>
+      <c r="Z56" s="89"/>
+      <c r="AA56" s="89"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
@@ -5302,15 +5321,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A29:AA29"/>
-    <mergeCell ref="A56:AA56"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="M3:AA14"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:AA24"/>
@@ -5324,6 +5334,15 @@
     <mergeCell ref="C25:AA25"/>
     <mergeCell ref="C8:G9"/>
     <mergeCell ref="I12:K17"/>
+    <mergeCell ref="A29:AA29"/>
+    <mergeCell ref="A56:AA56"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="M3:AA14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5349,20 +5368,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S2" s="7"/>
@@ -5381,35 +5400,35 @@
       <c r="AF2" s="7"/>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="102"/>
-      <c r="J3" s="89" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="92"/>
+      <c r="J3" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="112"/>
-      <c r="T3" s="112"/>
-      <c r="U3" s="112"/>
-      <c r="V3" s="112"/>
-      <c r="W3" s="112"/>
-      <c r="X3" s="112"/>
-      <c r="Y3" s="112"/>
-      <c r="Z3" s="112"/>
-      <c r="AA3" s="112"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
@@ -5417,35 +5436,35 @@
       <c r="AF3" s="7"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="102"/>
-      <c r="J4" s="89" t="s">
+      <c r="B4" s="93"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="92"/>
+      <c r="J4" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
-      <c r="U4" s="112"/>
-      <c r="V4" s="112"/>
-      <c r="W4" s="112"/>
-      <c r="X4" s="112"/>
-      <c r="Y4" s="112"/>
-      <c r="Z4" s="112"/>
-      <c r="AA4" s="112"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
@@ -5454,26 +5473,26 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I5"/>
-      <c r="J5" s="99" t="s">
+      <c r="J5" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="112"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="94"/>
+      <c r="AA5" s="94"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
@@ -5481,30 +5500,30 @@
       <c r="AF5" s="7"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="102"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="112"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="112"/>
-      <c r="R6" s="112"/>
-      <c r="S6" s="112"/>
-      <c r="T6" s="112"/>
-      <c r="U6" s="112"/>
-      <c r="V6" s="112"/>
-      <c r="W6" s="112"/>
-      <c r="X6" s="112"/>
-      <c r="Y6" s="112"/>
-      <c r="Z6" s="112"/>
-      <c r="AA6" s="112"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="92"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="94"/>
+      <c r="AA6" s="94"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
@@ -5512,30 +5531,30 @@
       <c r="AF6" s="7"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="112"/>
-      <c r="Y7" s="112"/>
-      <c r="Z7" s="112"/>
-      <c r="AA7" s="112"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="92"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="94"/>
+      <c r="W7" s="94"/>
+      <c r="X7" s="94"/>
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="94"/>
+      <c r="AA7" s="94"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
@@ -5547,31 +5566,31 @@
       <c r="B8" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="112"/>
-      <c r="W8" s="112"/>
-      <c r="X8" s="112"/>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="112"/>
-      <c r="AA8" s="112"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="94"/>
+      <c r="T8" s="94"/>
+      <c r="U8" s="94"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="94"/>
+      <c r="X8" s="94"/>
+      <c r="Y8" s="94"/>
+      <c r="Z8" s="94"/>
+      <c r="AA8" s="94"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
@@ -5581,31 +5600,31 @@
     <row r="9" spans="1:32" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="108"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="111"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="112"/>
-      <c r="R9" s="112"/>
-      <c r="S9" s="112"/>
-      <c r="T9" s="112"/>
-      <c r="U9" s="112"/>
-      <c r="V9" s="112"/>
-      <c r="W9" s="112"/>
-      <c r="X9" s="112"/>
-      <c r="Y9" s="112"/>
-      <c r="Z9" s="112"/>
-      <c r="AA9" s="112"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="94"/>
+      <c r="AA9" s="94"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
@@ -5620,21 +5639,21 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="112"/>
-      <c r="R10" s="112"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="112"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="112"/>
-      <c r="AA10" s="112"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
+      <c r="Y10" s="94"/>
+      <c r="Z10" s="94"/>
+      <c r="AA10" s="94"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
@@ -5646,27 +5665,27 @@
       <c r="C11" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="100"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="102"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="112"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
-      <c r="R11" s="112"/>
-      <c r="S11" s="112"/>
-      <c r="T11" s="112"/>
-      <c r="U11" s="112"/>
-      <c r="V11" s="112"/>
-      <c r="W11" s="112"/>
-      <c r="X11" s="112"/>
-      <c r="Y11" s="112"/>
-      <c r="Z11" s="112"/>
-      <c r="AA11" s="112"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="92"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="94"/>
+      <c r="V11" s="94"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="94"/>
+      <c r="Y11" s="94"/>
+      <c r="Z11" s="94"/>
+      <c r="AA11" s="94"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
@@ -5676,21 +5695,21 @@
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
-      <c r="R12" s="112"/>
-      <c r="S12" s="112"/>
-      <c r="T12" s="112"/>
-      <c r="U12" s="112"/>
-      <c r="V12" s="112"/>
-      <c r="W12" s="112"/>
-      <c r="X12" s="112"/>
-      <c r="Y12" s="112"/>
-      <c r="Z12" s="112"/>
-      <c r="AA12" s="112"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="94"/>
+      <c r="Z12" s="94"/>
+      <c r="AA12" s="94"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
@@ -5707,23 +5726,23 @@
       <c r="H13" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="I13" s="100"/>
-      <c r="J13" s="102"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="112"/>
-      <c r="S13" s="112"/>
-      <c r="T13" s="112"/>
-      <c r="U13" s="112"/>
-      <c r="V13" s="112"/>
-      <c r="W13" s="112"/>
-      <c r="X13" s="112"/>
-      <c r="Y13" s="112"/>
-      <c r="Z13" s="112"/>
-      <c r="AA13" s="112"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="92"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="94"/>
+      <c r="AA13" s="94"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
@@ -5761,8 +5780,8 @@
       <c r="H15" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="I15" s="100"/>
-      <c r="J15" s="102"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="92"/>
       <c r="K15" s="76"/>
       <c r="L15" s="76"/>
     </row>
@@ -5774,17 +5793,11 @@
       <c r="H17" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="100"/>
-      <c r="J17" s="102"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="J3:L3"/>
     <mergeCell ref="M3:AA13"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:G4"/>
@@ -5797,6 +5810,12 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G9"/>
     <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5811,7 +5830,7 @@
   <dimension ref="A1:AC26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:X13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5820,20 +5839,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="S2" s="7"/>
@@ -5849,32 +5868,32 @@
       <c r="AC2" s="7"/>
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="102"/>
-      <c r="J3" s="89" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="92"/>
+      <c r="J3" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="112"/>
-      <c r="T3" s="112"/>
-      <c r="U3" s="112"/>
-      <c r="V3" s="112"/>
-      <c r="W3" s="112"/>
-      <c r="X3" s="112"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
@@ -5882,32 +5901,32 @@
       <c r="AC3" s="7"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="102"/>
-      <c r="J4" s="89" t="s">
+      <c r="B4" s="93"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="92"/>
+      <c r="J4" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
-      <c r="U4" s="112"/>
-      <c r="V4" s="112"/>
-      <c r="W4" s="112"/>
-      <c r="X4" s="112"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="94"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
@@ -5916,21 +5935,21 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="I5"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -5938,27 +5957,27 @@
       <c r="AC5" s="7"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="102"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="112"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="112"/>
-      <c r="R6" s="112"/>
-      <c r="S6" s="112"/>
-      <c r="T6" s="112"/>
-      <c r="U6" s="112"/>
-      <c r="V6" s="112"/>
-      <c r="W6" s="112"/>
-      <c r="X6" s="112"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="92"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
@@ -5966,27 +5985,27 @@
       <c r="AC6" s="7"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="112"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="92"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="94"/>
+      <c r="W7" s="94"/>
+      <c r="X7" s="94"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
@@ -5998,28 +6017,28 @@
       <c r="B8" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="112"/>
-      <c r="W8" s="112"/>
-      <c r="X8" s="112"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="94"/>
+      <c r="T8" s="94"/>
+      <c r="U8" s="94"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="94"/>
+      <c r="X8" s="94"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
@@ -6029,28 +6048,28 @@
     <row r="9" spans="1:29" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="108"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="111"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="112"/>
-      <c r="R9" s="112"/>
-      <c r="S9" s="112"/>
-      <c r="T9" s="112"/>
-      <c r="U9" s="112"/>
-      <c r="V9" s="112"/>
-      <c r="W9" s="112"/>
-      <c r="X9" s="112"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
@@ -6065,18 +6084,18 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="112"/>
-      <c r="R10" s="112"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="112"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
@@ -6090,20 +6109,20 @@
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="M11" s="112"/>
-      <c r="N11" s="112"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
-      <c r="R11" s="112"/>
-      <c r="S11" s="112"/>
-      <c r="T11" s="112"/>
-      <c r="U11" s="112"/>
-      <c r="V11" s="112"/>
-      <c r="W11" s="112"/>
-      <c r="X11" s="112"/>
+        <v>144</v>
+      </c>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="94"/>
+      <c r="V11" s="94"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="94"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
@@ -6116,20 +6135,20 @@
       <c r="D12" s="13"/>
       <c r="E12" s="80"/>
       <c r="F12" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="M12" s="112"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
-      <c r="R12" s="112"/>
-      <c r="S12" s="112"/>
-      <c r="T12" s="112"/>
-      <c r="U12" s="112"/>
-      <c r="V12" s="112"/>
-      <c r="W12" s="112"/>
-      <c r="X12" s="112"/>
+        <v>155</v>
+      </c>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
@@ -6143,22 +6162,22 @@
       <c r="D13" s="11"/>
       <c r="E13" s="25"/>
       <c r="F13" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="112"/>
-      <c r="S13" s="112"/>
-      <c r="T13" s="112"/>
-      <c r="U13" s="112"/>
-      <c r="V13" s="112"/>
-      <c r="W13" s="112"/>
-      <c r="X13" s="112"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
@@ -6184,325 +6203,383 @@
       <c r="AC14" s="7"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="91"/>
-      <c r="S15" s="91"/>
-      <c r="T15" s="91"/>
-      <c r="U15" s="91"/>
-      <c r="V15" s="91"/>
-      <c r="W15" s="91"/>
-      <c r="X15" s="92"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="97"/>
+      <c r="S15" s="97"/>
+      <c r="T15" s="97"/>
+      <c r="U15" s="97"/>
+      <c r="V15" s="97"/>
+      <c r="W15" s="97"/>
+      <c r="X15" s="98"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="93" t="s">
+      <c r="C16" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
-      <c r="T16" s="94"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="94"/>
-      <c r="W16" s="94"/>
-      <c r="X16" s="95"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="100"/>
+      <c r="Q16" s="100"/>
+      <c r="R16" s="100"/>
+      <c r="S16" s="100"/>
+      <c r="T16" s="100"/>
+      <c r="U16" s="100"/>
+      <c r="V16" s="100"/>
+      <c r="W16" s="100"/>
+      <c r="X16" s="101"/>
     </row>
     <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="96" t="s">
+      <c r="C17" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="97"/>
-      <c r="N17" s="97"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="97"/>
-      <c r="R17" s="97"/>
-      <c r="S17" s="97"/>
-      <c r="T17" s="97"/>
-      <c r="U17" s="97"/>
-      <c r="V17" s="97"/>
-      <c r="W17" s="97"/>
-      <c r="X17" s="98"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="103"/>
+      <c r="R17" s="103"/>
+      <c r="S17" s="103"/>
+      <c r="T17" s="103"/>
+      <c r="U17" s="103"/>
+      <c r="V17" s="103"/>
+      <c r="W17" s="103"/>
+      <c r="X17" s="104"/>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="114" t="s">
+      <c r="C19" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114" t="s">
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114" t="s">
+      <c r="H19" s="118"/>
+      <c r="I19" s="118" t="s">
         <v>132</v>
       </c>
-      <c r="J19" s="114"/>
+      <c r="J19" s="118"/>
       <c r="K19" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="L19" s="114" t="s">
+      <c r="L19" s="118" t="s">
         <v>131</v>
       </c>
-      <c r="M19" s="114"/>
-      <c r="N19" s="114" t="s">
+      <c r="M19" s="118"/>
+      <c r="N19" s="118" t="s">
         <v>133</v>
       </c>
-      <c r="O19" s="114"/>
-      <c r="P19" s="114" t="s">
+      <c r="O19" s="118"/>
+      <c r="P19" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="Q19" s="114"/>
-      <c r="R19" s="116" t="s">
+      <c r="Q19" s="118"/>
+      <c r="R19" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="S19" s="116"/>
-      <c r="T19" s="116"/>
-      <c r="U19" s="116"/>
-      <c r="V19" s="116"/>
-      <c r="W19" s="116"/>
-      <c r="X19" s="116"/>
+      <c r="S19" s="115"/>
+      <c r="T19" s="115"/>
+      <c r="U19" s="115"/>
+      <c r="V19" s="115"/>
+      <c r="W19" s="115"/>
+      <c r="X19" s="115"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="119"/>
       <c r="K20" s="38"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="113"/>
-      <c r="N20" s="115"/>
-      <c r="O20" s="115"/>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="115"/>
-      <c r="R20" s="117"/>
-      <c r="S20" s="117"/>
-      <c r="T20" s="117"/>
-      <c r="U20" s="117"/>
-      <c r="V20" s="117"/>
-      <c r="W20" s="117"/>
-      <c r="X20" s="117"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="119"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="116"/>
+      <c r="S20" s="116"/>
+      <c r="T20" s="116"/>
+      <c r="U20" s="116"/>
+      <c r="V20" s="116"/>
+      <c r="W20" s="116"/>
+      <c r="X20" s="116"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
       <c r="K21" s="38"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="113"/>
-      <c r="Q21" s="113"/>
-      <c r="R21" s="118"/>
-      <c r="S21" s="118"/>
-      <c r="T21" s="118"/>
-      <c r="U21" s="118"/>
-      <c r="V21" s="118"/>
-      <c r="W21" s="118"/>
-      <c r="X21" s="118"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="114"/>
+      <c r="Q21" s="114"/>
+      <c r="R21" s="117"/>
+      <c r="S21" s="117"/>
+      <c r="T21" s="117"/>
+      <c r="U21" s="117"/>
+      <c r="V21" s="117"/>
+      <c r="W21" s="117"/>
+      <c r="X21" s="117"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B22" s="10">
         <v>3</v>
       </c>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="114"/>
       <c r="K22" s="38"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="113"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="113"/>
-      <c r="Q22" s="113"/>
-      <c r="R22" s="118"/>
-      <c r="S22" s="118"/>
-      <c r="T22" s="118"/>
-      <c r="U22" s="118"/>
-      <c r="V22" s="118"/>
-      <c r="W22" s="118"/>
-      <c r="X22" s="118"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="114"/>
+      <c r="N22" s="114"/>
+      <c r="O22" s="114"/>
+      <c r="P22" s="114"/>
+      <c r="Q22" s="114"/>
+      <c r="R22" s="117"/>
+      <c r="S22" s="117"/>
+      <c r="T22" s="117"/>
+      <c r="U22" s="117"/>
+      <c r="V22" s="117"/>
+      <c r="W22" s="117"/>
+      <c r="X22" s="117"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
         <v>4</v>
       </c>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="114"/>
       <c r="K23" s="38"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="113"/>
-      <c r="N23" s="113"/>
-      <c r="O23" s="113"/>
-      <c r="P23" s="113"/>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="118"/>
-      <c r="S23" s="118"/>
-      <c r="T23" s="118"/>
-      <c r="U23" s="118"/>
-      <c r="V23" s="118"/>
-      <c r="W23" s="118"/>
-      <c r="X23" s="118"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="114"/>
+      <c r="N23" s="114"/>
+      <c r="O23" s="114"/>
+      <c r="P23" s="114"/>
+      <c r="Q23" s="114"/>
+      <c r="R23" s="117"/>
+      <c r="S23" s="117"/>
+      <c r="T23" s="117"/>
+      <c r="U23" s="117"/>
+      <c r="V23" s="117"/>
+      <c r="W23" s="117"/>
+      <c r="X23" s="117"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B24" s="10">
         <v>5</v>
       </c>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="113"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="114"/>
       <c r="K24" s="38"/>
-      <c r="L24" s="113"/>
-      <c r="M24" s="113"/>
-      <c r="N24" s="113"/>
-      <c r="O24" s="113"/>
-      <c r="P24" s="113"/>
-      <c r="Q24" s="113"/>
-      <c r="R24" s="118"/>
-      <c r="S24" s="118"/>
-      <c r="T24" s="118"/>
-      <c r="U24" s="118"/>
-      <c r="V24" s="118"/>
-      <c r="W24" s="118"/>
-      <c r="X24" s="118"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="114"/>
+      <c r="N24" s="114"/>
+      <c r="O24" s="114"/>
+      <c r="P24" s="114"/>
+      <c r="Q24" s="114"/>
+      <c r="R24" s="117"/>
+      <c r="S24" s="117"/>
+      <c r="T24" s="117"/>
+      <c r="U24" s="117"/>
+      <c r="V24" s="117"/>
+      <c r="W24" s="117"/>
+      <c r="X24" s="117"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
         <v>6</v>
       </c>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="113"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="114"/>
+      <c r="J25" s="114"/>
       <c r="K25" s="38"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="113"/>
-      <c r="N25" s="113"/>
-      <c r="O25" s="113"/>
-      <c r="P25" s="113"/>
-      <c r="Q25" s="113"/>
-      <c r="R25" s="118"/>
-      <c r="S25" s="118"/>
-      <c r="T25" s="118"/>
-      <c r="U25" s="118"/>
-      <c r="V25" s="118"/>
-      <c r="W25" s="118"/>
-      <c r="X25" s="118"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="114"/>
+      <c r="N25" s="114"/>
+      <c r="O25" s="114"/>
+      <c r="P25" s="114"/>
+      <c r="Q25" s="114"/>
+      <c r="R25" s="117"/>
+      <c r="S25" s="117"/>
+      <c r="T25" s="117"/>
+      <c r="U25" s="117"/>
+      <c r="V25" s="117"/>
+      <c r="W25" s="117"/>
+      <c r="X25" s="117"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="113"/>
-      <c r="J26" s="113"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="114"/>
       <c r="K26" s="38"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="113"/>
-      <c r="N26" s="113"/>
-      <c r="O26" s="113"/>
-      <c r="P26" s="113"/>
-      <c r="Q26" s="113"/>
-      <c r="R26" s="118"/>
-      <c r="S26" s="118"/>
-      <c r="T26" s="118"/>
-      <c r="U26" s="118"/>
-      <c r="V26" s="118"/>
-      <c r="W26" s="118"/>
-      <c r="X26" s="118"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="114"/>
+      <c r="N26" s="114"/>
+      <c r="O26" s="114"/>
+      <c r="P26" s="114"/>
+      <c r="Q26" s="114"/>
+      <c r="R26" s="117"/>
+      <c r="S26" s="117"/>
+      <c r="T26" s="117"/>
+      <c r="U26" s="117"/>
+      <c r="V26" s="117"/>
+      <c r="W26" s="117"/>
+      <c r="X26" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C16:X16"/>
+    <mergeCell ref="C17:X17"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C15:X15"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:X13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C8:G9"/>
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="P25:Q25"/>
     <mergeCell ref="P26:Q26"/>
@@ -6519,64 +6596,6 @@
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:X13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C8:G9"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C16:X16"/>
-    <mergeCell ref="C17:X17"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C15:X15"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6600,20 +6619,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S2" s="7"/>
@@ -6632,35 +6651,35 @@
       <c r="AF2" s="7"/>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="102"/>
-      <c r="J3" s="89" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="92"/>
+      <c r="J3" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="112"/>
-      <c r="T3" s="112"/>
-      <c r="U3" s="112"/>
-      <c r="V3" s="112"/>
-      <c r="W3" s="112"/>
-      <c r="X3" s="112"/>
-      <c r="Y3" s="112"/>
-      <c r="Z3" s="112"/>
-      <c r="AA3" s="112"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
@@ -6668,35 +6687,35 @@
       <c r="AF3" s="7"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="102"/>
-      <c r="J4" s="89" t="s">
+      <c r="B4" s="93"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="92"/>
+      <c r="J4" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
-      <c r="U4" s="112"/>
-      <c r="V4" s="112"/>
-      <c r="W4" s="112"/>
-      <c r="X4" s="112"/>
-      <c r="Y4" s="112"/>
-      <c r="Z4" s="112"/>
-      <c r="AA4" s="112"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
@@ -6705,26 +6724,26 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I5"/>
-      <c r="J5" s="99" t="s">
+      <c r="J5" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="112"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="94"/>
+      <c r="AA5" s="94"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
@@ -6732,30 +6751,30 @@
       <c r="AF5" s="7"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="102"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="112"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="112"/>
-      <c r="R6" s="112"/>
-      <c r="S6" s="112"/>
-      <c r="T6" s="112"/>
-      <c r="U6" s="112"/>
-      <c r="V6" s="112"/>
-      <c r="W6" s="112"/>
-      <c r="X6" s="112"/>
-      <c r="Y6" s="112"/>
-      <c r="Z6" s="112"/>
-      <c r="AA6" s="112"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="92"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="94"/>
+      <c r="AA6" s="94"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
@@ -6763,30 +6782,30 @@
       <c r="AF6" s="7"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="112"/>
-      <c r="Y7" s="112"/>
-      <c r="Z7" s="112"/>
-      <c r="AA7" s="112"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="92"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="94"/>
+      <c r="W7" s="94"/>
+      <c r="X7" s="94"/>
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="94"/>
+      <c r="AA7" s="94"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
@@ -6798,31 +6817,31 @@
       <c r="B8" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="112"/>
-      <c r="W8" s="112"/>
-      <c r="X8" s="112"/>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="112"/>
-      <c r="AA8" s="112"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="94"/>
+      <c r="T8" s="94"/>
+      <c r="U8" s="94"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="94"/>
+      <c r="X8" s="94"/>
+      <c r="Y8" s="94"/>
+      <c r="Z8" s="94"/>
+      <c r="AA8" s="94"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
@@ -6832,31 +6851,31 @@
     <row r="9" spans="1:32" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="108"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="111"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="112"/>
-      <c r="R9" s="112"/>
-      <c r="S9" s="112"/>
-      <c r="T9" s="112"/>
-      <c r="U9" s="112"/>
-      <c r="V9" s="112"/>
-      <c r="W9" s="112"/>
-      <c r="X9" s="112"/>
-      <c r="Y9" s="112"/>
-      <c r="Z9" s="112"/>
-      <c r="AA9" s="112"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="94"/>
+      <c r="AA9" s="94"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
@@ -6871,21 +6890,21 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="112"/>
-      <c r="R10" s="112"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="112"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="112"/>
-      <c r="AA10" s="112"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
+      <c r="Y10" s="94"/>
+      <c r="Z10" s="94"/>
+      <c r="AA10" s="94"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
@@ -6899,23 +6918,23 @@
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="M11" s="112"/>
-      <c r="N11" s="112"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
-      <c r="R11" s="112"/>
-      <c r="S11" s="112"/>
-      <c r="T11" s="112"/>
-      <c r="U11" s="112"/>
-      <c r="V11" s="112"/>
-      <c r="W11" s="112"/>
-      <c r="X11" s="112"/>
-      <c r="Y11" s="112"/>
-      <c r="Z11" s="112"/>
-      <c r="AA11" s="112"/>
+        <v>147</v>
+      </c>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="94"/>
+      <c r="V11" s="94"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="94"/>
+      <c r="Y11" s="94"/>
+      <c r="Z11" s="94"/>
+      <c r="AA11" s="94"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
@@ -6928,23 +6947,23 @@
       <c r="D12" s="13"/>
       <c r="E12" s="44"/>
       <c r="F12" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="M12" s="112"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
-      <c r="R12" s="112"/>
-      <c r="S12" s="112"/>
-      <c r="T12" s="112"/>
-      <c r="U12" s="112"/>
-      <c r="V12" s="112"/>
-      <c r="W12" s="112"/>
-      <c r="X12" s="112"/>
-      <c r="Y12" s="112"/>
-      <c r="Z12" s="112"/>
-      <c r="AA12" s="112"/>
+        <v>148</v>
+      </c>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="94"/>
+      <c r="Z12" s="94"/>
+      <c r="AA12" s="94"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
@@ -6958,26 +6977,26 @@
       <c r="D13" s="11"/>
       <c r="E13" s="45"/>
       <c r="F13" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="112"/>
-      <c r="S13" s="112"/>
-      <c r="T13" s="112"/>
-      <c r="U13" s="112"/>
-      <c r="V13" s="112"/>
-      <c r="W13" s="112"/>
-      <c r="X13" s="112"/>
-      <c r="Y13" s="112"/>
-      <c r="Z13" s="112"/>
-      <c r="AA13" s="112"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="94"/>
+      <c r="AA13" s="94"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
@@ -6991,7 +7010,7 @@
       <c r="D14" s="11"/>
       <c r="E14" s="42"/>
       <c r="F14" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -7027,7 +7046,7 @@
       <c r="D15" s="11"/>
       <c r="E15" s="37"/>
       <c r="F15" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -7078,161 +7097,161 @@
       <c r="AF16" s="7"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="89"/>
-      <c r="C17" s="90" t="s">
+      <c r="B17" s="93"/>
+      <c r="C17" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="91"/>
-      <c r="S17" s="91"/>
-      <c r="T17" s="91"/>
-      <c r="U17" s="91"/>
-      <c r="V17" s="91"/>
-      <c r="W17" s="91"/>
-      <c r="X17" s="91"/>
-      <c r="Y17" s="91"/>
-      <c r="Z17" s="91"/>
-      <c r="AA17" s="92"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="97"/>
+      <c r="S17" s="97"/>
+      <c r="T17" s="97"/>
+      <c r="U17" s="97"/>
+      <c r="V17" s="97"/>
+      <c r="W17" s="97"/>
+      <c r="X17" s="97"/>
+      <c r="Y17" s="97"/>
+      <c r="Z17" s="97"/>
+      <c r="AA17" s="98"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="93" t="s">
+      <c r="C18" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="94"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="94"/>
-      <c r="V18" s="94"/>
-      <c r="W18" s="94"/>
-      <c r="X18" s="94"/>
-      <c r="Y18" s="94"/>
-      <c r="Z18" s="94"/>
-      <c r="AA18" s="95"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="100"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="100"/>
+      <c r="R18" s="100"/>
+      <c r="S18" s="100"/>
+      <c r="T18" s="100"/>
+      <c r="U18" s="100"/>
+      <c r="V18" s="100"/>
+      <c r="W18" s="100"/>
+      <c r="X18" s="100"/>
+      <c r="Y18" s="100"/>
+      <c r="Z18" s="100"/>
+      <c r="AA18" s="101"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="93" t="s">
+      <c r="C19" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="94"/>
-      <c r="V19" s="94"/>
-      <c r="W19" s="94"/>
-      <c r="X19" s="94"/>
-      <c r="Y19" s="94"/>
-      <c r="Z19" s="94"/>
-      <c r="AA19" s="95"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="100"/>
+      <c r="Q19" s="100"/>
+      <c r="R19" s="100"/>
+      <c r="S19" s="100"/>
+      <c r="T19" s="100"/>
+      <c r="U19" s="100"/>
+      <c r="V19" s="100"/>
+      <c r="W19" s="100"/>
+      <c r="X19" s="100"/>
+      <c r="Y19" s="100"/>
+      <c r="Z19" s="100"/>
+      <c r="AA19" s="101"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
-      <c r="C20" s="96" t="s">
+      <c r="C20" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="97"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="97"/>
-      <c r="S20" s="97"/>
-      <c r="T20" s="97"/>
-      <c r="U20" s="97"/>
-      <c r="V20" s="97"/>
-      <c r="W20" s="97"/>
-      <c r="X20" s="97"/>
-      <c r="Y20" s="97"/>
-      <c r="Z20" s="97"/>
-      <c r="AA20" s="98"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="103"/>
+      <c r="P20" s="103"/>
+      <c r="Q20" s="103"/>
+      <c r="R20" s="103"/>
+      <c r="S20" s="103"/>
+      <c r="T20" s="103"/>
+      <c r="U20" s="103"/>
+      <c r="V20" s="103"/>
+      <c r="W20" s="103"/>
+      <c r="X20" s="103"/>
+      <c r="Y20" s="103"/>
+      <c r="Z20" s="103"/>
+      <c r="AA20" s="104"/>
     </row>
     <row r="22" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="111" t="s">
+      <c r="A22" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="111"/>
-      <c r="O22" s="111"/>
-      <c r="P22" s="111"/>
-      <c r="Q22" s="111"/>
-      <c r="R22" s="111"/>
-      <c r="S22" s="111"/>
-      <c r="T22" s="111"/>
-      <c r="U22" s="111"/>
-      <c r="V22" s="111"/>
-      <c r="W22" s="111"/>
-      <c r="X22" s="111"/>
-      <c r="Y22" s="111"/>
-      <c r="Z22" s="111"/>
-      <c r="AA22" s="111"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="89"/>
+      <c r="T22" s="89"/>
+      <c r="U22" s="89"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="89"/>
+      <c r="Z22" s="89"/>
+      <c r="AA22" s="89"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -8031,35 +8050,35 @@
       <c r="J46" s="19"/>
     </row>
     <row r="49" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="111" t="s">
+      <c r="A49" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="111"/>
-      <c r="C49" s="111"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="111"/>
-      <c r="F49" s="111"/>
-      <c r="G49" s="111"/>
-      <c r="H49" s="111"/>
-      <c r="I49" s="111"/>
-      <c r="J49" s="111"/>
-      <c r="K49" s="111"/>
-      <c r="L49" s="111"/>
-      <c r="M49" s="111"/>
-      <c r="N49" s="111"/>
-      <c r="O49" s="111"/>
-      <c r="P49" s="111"/>
-      <c r="Q49" s="111"/>
-      <c r="R49" s="111"/>
-      <c r="S49" s="111"/>
-      <c r="T49" s="111"/>
-      <c r="U49" s="111"/>
-      <c r="V49" s="111"/>
-      <c r="W49" s="111"/>
-      <c r="X49" s="111"/>
-      <c r="Y49" s="111"/>
-      <c r="Z49" s="111"/>
-      <c r="AA49" s="111"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="89"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="89"/>
+      <c r="K49" s="89"/>
+      <c r="L49" s="89"/>
+      <c r="M49" s="89"/>
+      <c r="N49" s="89"/>
+      <c r="O49" s="89"/>
+      <c r="P49" s="89"/>
+      <c r="Q49" s="89"/>
+      <c r="R49" s="89"/>
+      <c r="S49" s="89"/>
+      <c r="T49" s="89"/>
+      <c r="U49" s="89"/>
+      <c r="V49" s="89"/>
+      <c r="W49" s="89"/>
+      <c r="X49" s="89"/>
+      <c r="Y49" s="89"/>
+      <c r="Z49" s="89"/>
+      <c r="AA49" s="89"/>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -8806,16 +8825,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:AA13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="C19:AA19"/>
     <mergeCell ref="C20:AA20"/>
     <mergeCell ref="A22:AA22"/>
@@ -8827,6 +8836,16 @@
     <mergeCell ref="C17:AA17"/>
     <mergeCell ref="C18:AA18"/>
     <mergeCell ref="C8:G9"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:AA13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/IMR-SampleSubmissionSheet_v10(LASTNAME_MMMDD).xlsx
+++ b/docs/IMR-SampleSubmissionSheet_v10(LASTNAME_MMMDD).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8F2DB3-F7A8-4F2D-84A6-63117297086D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECE3F47-A5F0-46C0-AA4A-68D9C2598115}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="742" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTIONS (read first)" sheetId="3" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="Genome Samples" sheetId="11" r:id="rId5"/>
     <sheet name="Metagenomic Samples" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="157">
   <si>
     <t xml:space="preserve">Plate 1 </t>
   </si>
@@ -314,9 +314,6 @@
     </r>
   </si>
   <si>
-    <t>CGEB-IMR (c/o Dr. André Comeau)</t>
-  </si>
-  <si>
     <t>Dept. of Pharmacology, local 5-D</t>
   </si>
   <si>
@@ -363,9 +360,6 @@
   </si>
   <si>
     <t>Quality:</t>
-  </si>
-  <si>
-    <t>10 µL of each sample</t>
   </si>
   <si>
     <t>"clean" DNA coming from commercial kit or proven manual method; absolutely clean spec ratios not required as PCR is relatively robust, but inhibitors must be removed</t>
@@ -405,30 +399,6 @@
   </si>
   <si>
     <t>- purified final library at &gt;10 ng/µL in at least 10 µL; we re-quantify incoming libraries (not oligos below) using Qubit</t>
-  </si>
-  <si>
-    <r>
-      <t>&gt;0.2 ng/µL (preferrably &gt;1 ng/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>µ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L); we re-quantify incoming DNAs using Qubit or Quant-iT</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1050,6 +1020,9 @@
     <t>For m(meta)transcriptome sequencing (NextSeq):</t>
   </si>
   <si>
+    <t>Coming soon!</t>
+  </si>
+  <si>
     <t>Amount:</t>
   </si>
   <si>
@@ -1089,6 +1062,9 @@
   </si>
   <si>
     <t xml:space="preserve"> MiSeq - ~0.9 million PE 300+300 bp reads = 540 Mb/genome</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PacBio - long-reads of variable size = ~2.0 Gb/genome</t>
   </si>
   <si>
     <t xml:space="preserve"> NextSeq - ~4 million PE 150+150 bp reads = 1.2 Gb/genome</t>
@@ -1145,13 +1121,34 @@
     <t>(separate PCRs</t>
   </si>
   <si>
-    <t xml:space="preserve"> PacBio - ~2.0 Gb/Bact. Genome or ~12 Gb/cell for Euks</t>
-  </si>
-  <si>
-    <t>For Iso-Seq transcriptome sequencing (PacBio):</t>
-  </si>
-  <si>
-    <t>Inquire!</t>
+    <r>
+      <t>&gt;1 ng/µL (preferrably &gt;10 ng/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>µ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L); we re-quantify incoming DNAs using Qubit or Quant-iT</t>
+    </r>
+  </si>
+  <si>
+    <t>10 µL of each sample (15-20 uL preferred)</t>
+  </si>
+  <si>
+    <t>IMR (c/o Dr. André Comeau)</t>
   </si>
 </sst>
 </file>
@@ -1984,7 +1981,7 @@
     <xf numFmtId="0" fontId="0" fillId="30" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2427,7 +2424,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2442,13 +2441,13 @@
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B3" s="14"/>
     </row>
@@ -2467,19 +2466,19 @@
     <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -2489,7 +2488,7 @@
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -2514,37 +2513,37 @@
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2554,10 +2553,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2569,7 +2568,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -2577,7 +2576,7 @@
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="82" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" s="82"/>
       <c r="C3" s="82"/>
@@ -2585,28 +2584,28 @@
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>77</v>
       </c>
       <c r="G6" s="16"/>
     </row>
@@ -2616,7 +2615,7 @@
     </row>
     <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="83" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B8" s="83"/>
       <c r="C8" s="83"/>
@@ -2624,46 +2623,46 @@
     <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="87" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" s="87"/>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="88"/>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="86" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="86"/>
       <c r="C12" s="86"/>
     </row>
     <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>83</v>
+        <v>72</v>
+      </c>
+      <c r="C13" s="81" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="C14" s="81" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -2671,33 +2670,33 @@
     </row>
     <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="86" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="86"/>
       <c r="C17" s="86"/>
     </row>
     <row r="18" spans="1:3" s="78" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="77" t="s">
         <v>139</v>
-      </c>
-      <c r="C18" s="77" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="78" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B19" s="77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="78" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B20" s="77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="77" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -2705,33 +2704,33 @@
     </row>
     <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="84" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B22" s="84"/>
       <c r="C22" s="84"/>
     </row>
     <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>83</v>
+        <v>72</v>
+      </c>
+      <c r="C23" s="81" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="C24" s="81" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="77" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -2739,33 +2738,18 @@
     </row>
     <row r="27" spans="1:3" s="78" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="85" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B27" s="85"/>
       <c r="C27" s="85"/>
     </row>
     <row r="28" spans="1:3" s="78" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="85" t="s">
-        <v>156</v>
-      </c>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-    </row>
-    <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="81"/>
-      <c r="B31" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="C31" s="81"/>
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A30:C30"/>
+  <mergeCells count="8">
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A22:C22"/>
@@ -2797,7 +2781,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="95" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="95"/>
@@ -2992,7 +2976,7 @@
     <row r="8" spans="1:32" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C8" s="106"/>
       <c r="D8" s="107"/>
@@ -3099,7 +3083,7 @@
       <c r="C11" s="63"/>
       <c r="D11" s="63"/>
       <c r="E11" s="75" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F11" s="63"/>
       <c r="G11" s="63"/>
@@ -3133,14 +3117,14 @@
       <c r="A12" s="9"/>
       <c r="B12" s="61"/>
       <c r="D12" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="11" t="s">
         <v>40</v>
       </c>
       <c r="I12" s="112" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J12" s="112"/>
       <c r="K12" s="113"/>
@@ -3239,7 +3223,7 @@
       <c r="D15" s="29"/>
       <c r="E15" s="40"/>
       <c r="F15" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G15" s="12"/>
       <c r="I15" s="112"/>
@@ -3303,7 +3287,7 @@
       <c r="A17" s="33"/>
       <c r="B17" s="60"/>
       <c r="D17" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="11" t="s">
@@ -3370,7 +3354,7 @@
       <c r="A19" s="33"/>
       <c r="B19" s="60"/>
       <c r="D19" s="33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E19" s="43"/>
       <c r="F19" s="11" t="s">
@@ -3378,30 +3362,30 @@
       </c>
       <c r="G19" s="12"/>
       <c r="J19" s="47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K19" s="48"/>
       <c r="L19" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M19" s="35"/>
       <c r="N19" s="51"/>
       <c r="O19" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P19" s="35"/>
       <c r="Q19" s="52"/>
       <c r="R19" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="T19" s="56"/>
       <c r="U19" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="V19" s="35"/>
       <c r="W19" s="58"/>
       <c r="X19" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Y19" s="67"/>
       <c r="Z19" s="35"/>
@@ -3420,27 +3404,27 @@
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
       <c r="J20" s="79" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K20" s="49"/>
       <c r="L20" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M20" s="35"/>
       <c r="N20" s="55"/>
       <c r="O20" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P20" s="35"/>
       <c r="Q20" s="53"/>
       <c r="R20" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="S20" s="35"/>
       <c r="V20" s="35"/>
       <c r="W20" s="59"/>
       <c r="X20" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Y20" s="67"/>
       <c r="Z20" s="35"/>
@@ -3455,30 +3439,30 @@
       <c r="A21" s="33"/>
       <c r="B21" s="60"/>
       <c r="D21" s="33" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E21" s="46"/>
       <c r="F21" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G21" s="12"/>
       <c r="J21" s="79" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K21" s="50"/>
       <c r="L21" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M21" s="35"/>
       <c r="P21" s="35"/>
       <c r="Q21" s="54"/>
       <c r="R21" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="S21" s="35"/>
       <c r="T21" s="57"/>
       <c r="U21" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="V21" s="35"/>
       <c r="W21" s="35"/>
@@ -3554,7 +3538,7 @@
       </c>
       <c r="B24" s="93"/>
       <c r="C24" s="96" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D24" s="97"/>
       <c r="E24" s="97"/>
@@ -3585,7 +3569,7 @@
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="99" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D25" s="100"/>
       <c r="E25" s="100"/>
@@ -3616,7 +3600,7 @@
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="99" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D26" s="100"/>
       <c r="E26" s="100"/>
@@ -3647,7 +3631,7 @@
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="102" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D27" s="103"/>
       <c r="E27" s="103"/>
@@ -4128,10 +4112,10 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AA40" s="36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
@@ -4503,10 +4487,10 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="M52" s="36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AA52" s="36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.25">
@@ -5369,7 +5353,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="95" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="95"/>
@@ -5564,7 +5548,7 @@
     <row r="8" spans="1:32" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C8" s="106"/>
       <c r="D8" s="107"/>
@@ -5663,7 +5647,7 @@
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="C11" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D11" s="90"/>
       <c r="E11" s="91"/>
@@ -5720,11 +5704,11 @@
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D13" s="24"/>
       <c r="H13" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I13" s="90"/>
       <c r="J13" s="92"/>
@@ -5774,11 +5758,11 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C15" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D15" s="24"/>
       <c r="H15" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I15" s="90"/>
       <c r="J15" s="92"/>
@@ -5787,11 +5771,11 @@
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D17" s="24"/>
       <c r="H17" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I17" s="90"/>
       <c r="J17" s="92"/>
@@ -5830,7 +5814,7 @@
   <dimension ref="A1:AC26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="M3" sqref="M3:X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5840,7 +5824,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="95" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="95"/>
@@ -6015,7 +5999,7 @@
     <row r="8" spans="1:29" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C8" s="106"/>
       <c r="D8" s="107"/>
@@ -6105,11 +6089,11 @@
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="D11" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M11" s="94"/>
       <c r="N11" s="94"/>
@@ -6135,7 +6119,7 @@
       <c r="D12" s="13"/>
       <c r="E12" s="80"/>
       <c r="F12" s="11" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="M12" s="94"/>
       <c r="N12" s="94"/>
@@ -6162,7 +6146,7 @@
       <c r="D13" s="11"/>
       <c r="E13" s="25"/>
       <c r="F13" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -6208,7 +6192,7 @@
       </c>
       <c r="B15" s="93"/>
       <c r="C15" s="96" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D15" s="97"/>
       <c r="E15" s="97"/>
@@ -6236,7 +6220,7 @@
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="99" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D16" s="100"/>
       <c r="E16" s="100"/>
@@ -6264,7 +6248,7 @@
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="102" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D17" s="103"/>
       <c r="E17" s="103"/>
@@ -6290,39 +6274,39 @@
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C19" s="118" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D19" s="118"/>
       <c r="E19" s="118"/>
       <c r="F19" s="118"/>
       <c r="G19" s="118" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H19" s="118"/>
       <c r="I19" s="118" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J19" s="118"/>
       <c r="K19" s="27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L19" s="118" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M19" s="118"/>
       <c r="N19" s="118" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O19" s="118"/>
       <c r="P19" s="118" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="118"/>
       <c r="R19" s="115" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="S19" s="115"/>
       <c r="T19" s="115"/>
@@ -6620,7 +6604,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="95" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="95"/>
@@ -6815,7 +6799,7 @@
     <row r="8" spans="1:32" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C8" s="106"/>
       <c r="D8" s="107"/>
@@ -6914,11 +6898,11 @@
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="D11" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M11" s="94"/>
       <c r="N11" s="94"/>
@@ -6947,7 +6931,7 @@
       <c r="D12" s="13"/>
       <c r="E12" s="44"/>
       <c r="F12" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M12" s="94"/>
       <c r="N12" s="94"/>
@@ -6977,7 +6961,7 @@
       <c r="D13" s="11"/>
       <c r="E13" s="45"/>
       <c r="F13" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -7010,7 +6994,7 @@
       <c r="D14" s="11"/>
       <c r="E14" s="42"/>
       <c r="F14" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -7046,7 +7030,7 @@
       <c r="D15" s="11"/>
       <c r="E15" s="37"/>
       <c r="F15" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -7102,7 +7086,7 @@
       </c>
       <c r="B17" s="93"/>
       <c r="C17" s="96" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D17" s="97"/>
       <c r="E17" s="97"/>
@@ -7133,7 +7117,7 @@
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="99" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D18" s="100"/>
       <c r="E18" s="100"/>
@@ -7164,7 +7148,7 @@
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="99" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D19" s="100"/>
       <c r="E19" s="100"/>
@@ -7195,7 +7179,7 @@
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="102" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D20" s="103"/>
       <c r="E20" s="103"/>
@@ -8051,7 +8035,7 @@
     </row>
     <row r="49" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="89" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B49" s="89"/>
       <c r="C49" s="89"/>
